--- a/design/content/VA.gov-Nav-Hub-Links.xlsx
+++ b/design/content/VA.gov-Nav-Hub-Links.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="884" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Top Nav" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="515">
   <si>
     <t>Inside VA</t>
   </si>
@@ -1052,9 +1052,6 @@
   </si>
   <si>
     <t>https://www.research.va.gov/</t>
-  </si>
-  <si>
-    <t>Need to get this down to 5 max</t>
   </si>
   <si>
     <t>TOP NAV ORDER</t>
@@ -1616,9 +1613,6 @@
     </r>
   </si>
   <si>
-    <t>6?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1942,6 +1936,308 @@
   </si>
   <si>
     <t>Related Resources</t>
+  </si>
+  <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>Content in this hub is focused on getting Veterans (and other beneficiaries) to eligible pension benefits and tools.</t>
+  </si>
+  <si>
+    <t>Pension Benefits</t>
+  </si>
+  <si>
+    <t>Get Pension Benefits</t>
+  </si>
+  <si>
+    <t>vets.gov/pension/eligibility/</t>
+  </si>
+  <si>
+    <t>vets.gov/pension/apply/</t>
+  </si>
+  <si>
+    <t>Aid and Attendance or Housebound Allowance</t>
+  </si>
+  <si>
+    <t>vets.gov/pension/aid-attendance-housebound/</t>
+  </si>
+  <si>
+    <t>Survivor Pension</t>
+  </si>
+  <si>
+    <t>Apply for Pension Benefits</t>
+  </si>
+  <si>
+    <t>vets.gov/track-claims</t>
+  </si>
+  <si>
+    <t>vets.gov/disability-benefits/claims-appeal/</t>
+  </si>
+  <si>
+    <t>Find a Benefit Center</t>
+  </si>
+  <si>
+    <t>Rudisill, Jennifer:
+This should be, "Find a regional benefit office." We don't call VBA regional offices or other facilities as a "Benefit Center." Also, recommend this is moved under "Other Resources."</t>
+  </si>
+  <si>
+    <t>Rudisill, Jennifer:
+Remove. This is only related compensation</t>
+  </si>
+  <si>
+    <t>Veterans Pension Rates</t>
+  </si>
+  <si>
+    <t>vets.gov/pension/rates/</t>
+  </si>
+  <si>
+    <t>Survivors Pension Rates</t>
+  </si>
+  <si>
+    <t>vets.gov/pension/survivors-pension/rates/</t>
+  </si>
+  <si>
+    <t>Compensation and Pension Exam</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/compensation/claimexam.asp</t>
+  </si>
+  <si>
+    <t>Pension Management Centers</t>
+  </si>
+  <si>
+    <t>vets.gov/pension/pension-management-center/</t>
+  </si>
+  <si>
+    <t>va.gov/life-insurance</t>
+  </si>
+  <si>
+    <t>Family and Caregiver Benefits and Services</t>
+  </si>
+  <si>
+    <t>va.gov/families-caregivers</t>
+  </si>
+  <si>
+    <t>Applying for Benefits</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/benefits/applying.asp</t>
+  </si>
+  <si>
+    <t>Benefits A-Z</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/atoz/index.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Your Documents and Records </t>
+  </si>
+  <si>
+    <t>ebenefits.va.gov/ebenefits/manage/documents</t>
+  </si>
+  <si>
+    <t>Rudisill, Jennifer:
+Not sure why this is here. I don't think pension and insurance are related.</t>
+  </si>
+  <si>
+    <t>Track Your Claim Status</t>
+  </si>
+  <si>
+    <t>Track Your Appeal Status</t>
+  </si>
+  <si>
+    <t>https://www.ebenefits.va.gov/ebenefits/about/feature?feature=compensation-pension-claim-status</t>
+  </si>
+  <si>
+    <t>https://www.ebenefits.va.gov/ebenefits/about/feature?feature=compensation-claim-appeal-status</t>
+  </si>
+  <si>
+    <t>The new form references Pension, can we confirm?</t>
+  </si>
+  <si>
+    <t>Health Care Benefits</t>
+  </si>
+  <si>
+    <t>vets.gov/health-care</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>Volunteer or Donate</t>
+  </si>
+  <si>
+    <t>Adaptive Housing Grants</t>
+  </si>
+  <si>
+    <t>Content in this hub is focused on getting Veterans (and other beneficiaries) to eligible life insurance benefits and tools.</t>
+  </si>
+  <si>
+    <t>Life Insurance Options and Eligibility</t>
+  </si>
+  <si>
+    <t>vets.gov/life-insurance/options-and-eligibility/</t>
+  </si>
+  <si>
+    <t>Benefits for Totally Disabled or Terminally Ill Policyholders</t>
+  </si>
+  <si>
+    <t>vets.gov/life-insurance/disabled-and-terminally-ill/</t>
+  </si>
+  <si>
+    <t>Get Life Insurance</t>
+  </si>
+  <si>
+    <t>Manage Your Life Insurance</t>
+  </si>
+  <si>
+    <t>Servicemembers' Group Life Insurance Online Enrollment System</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/INSURANCE/SOES.asp#SOES_FAQs</t>
+  </si>
+  <si>
+    <t>Access Your Policy</t>
+  </si>
+  <si>
+    <t>insurance.va.gov/home/</t>
+  </si>
+  <si>
+    <t>Update Your Beneficiaries</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/INSURANCE/updatebene.asp</t>
+  </si>
+  <si>
+    <t>Track Your Life Insurance Eligibility Appeal Status</t>
+  </si>
+  <si>
+    <t>File a Claim</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/INSURANCE/sglivgli.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudisill, Jennifer:
+This should be, "Find a regional benefit office." We don't call VBA regional offices or other facilities as a "Benefit Center." </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Added.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Top  14/20 visited VBA pages in FY 17. Includes info and links on how to apply for all VBA benefits including ones not covered under the spokes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Added.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Top 9/20 visited eBenefits pages in FY17. Pertinent for all VBA benefits. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Added</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Top 20/20 VBA pages visited in FY17</t>
+    </r>
+  </si>
+  <si>
+    <t>Added.</t>
+  </si>
+  <si>
+    <t>Beneficiary Financial Counseling and Online Will Preparation</t>
+  </si>
+  <si>
+    <t>Assessing Your Life Insurance Needs</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/insurance/lifeins101.asp</t>
+  </si>
+  <si>
+    <t>More Life Insurance Information and Resources</t>
+  </si>
+  <si>
+    <t>va.gov/pension</t>
+  </si>
+  <si>
+    <t>Rudisill, Jennifer:
+Not sure why this is here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section is for surfacing other benefits that may be of interest to users, not for general content and tools. Need to find home for general benefit content not related to specific hub.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section is for surfacing other benefits that may be of interest to users, not for general content and tools.Need to find home for general benefit content not related to specific hub.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section is for surfacing other benefits that may be of interest to users, not for general content and tools. We will now have the Records hub in the top nav. </t>
+  </si>
+  <si>
+    <t>https://www.vets.gov/housing-assistance/adaptive-housing-grants/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a focus service right now. Removed. </t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation &amp; Employent (VR&amp;E)</t>
+  </si>
+  <si>
+    <t>https://www.vets.gov/employment/vocational-rehab-and-employment/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal is to expose additional benefits that may be of interest to users. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove - does not fall within the guidelines of related benefit or service. </t>
   </si>
 </sst>
 </file>
@@ -2020,14 +2316,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2118,8 +2406,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2162,6 +2456,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2194,7 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2324,9 +2624,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2335,10 +2632,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2365,16 +2665,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,10 +2689,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2413,7 +2713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2425,7 +2725,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2474,6 +2774,62 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2827,7 +3183,7 @@
         <v>43257</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
@@ -2888,10 +3244,10 @@
         <v>198</v>
       </c>
       <c r="G6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2914,7 +3270,7 @@
         <v>204</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>204</v>
@@ -2947,15 +3303,15 @@
         <v>29</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>151</v>
@@ -2974,7 +3330,7 @@
         <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2986,7 +3342,7 @@
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2998,7 +3354,7 @@
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3084,7 +3440,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3123,7 +3479,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -3150,20 +3506,20 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -3175,7 +3531,7 @@
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
       <c r="G7" s="37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
@@ -3192,11 +3548,11 @@
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="31.5">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>412</v>
+      <c r="B9" s="49" t="s">
+        <v>410</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>199</v>
@@ -3205,13 +3561,13 @@
         <v>199</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H9" s="61"/>
     </row>
@@ -3223,7 +3579,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E10" s="60">
         <v>1</v>
@@ -3242,10 +3598,10 @@
         <v>209</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E11" s="60">
         <v>2</v>
@@ -3264,10 +3620,10 @@
         <v>209</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E12" s="60">
         <v>3</v>
@@ -3286,10 +3642,10 @@
         <v>209</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E13" s="60">
         <v>4</v>
@@ -3308,10 +3664,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E14" s="60">
         <v>5</v>
@@ -3411,11 +3767,11 @@
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" s="44" customFormat="1" ht="31.5">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>423</v>
+      <c r="B20" s="49" t="s">
+        <v>421</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>199</v>
@@ -3424,13 +3780,13 @@
         <v>199</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
@@ -3440,10 +3796,10 @@
         <v>209</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E21" s="60">
         <v>1</v>
@@ -3457,10 +3813,10 @@
         <v>209</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="96" t="s">
         <v>276</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>277</v>
       </c>
       <c r="E22" s="60">
         <v>2</v>
@@ -3474,10 +3830,10 @@
         <v>209</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E23" s="60">
         <v>3</v>
@@ -3494,7 +3850,7 @@
         <v>169</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E24" s="60">
         <v>4</v>
@@ -3511,7 +3867,7 @@
         <v>170</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E25" s="60">
         <v>5</v>
@@ -3525,10 +3881,10 @@
         <v>209</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E26" s="60">
         <v>6</v>
@@ -3588,11 +3944,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>436</v>
+      <c r="B31" s="50" t="s">
+        <v>434</v>
       </c>
       <c r="C31" s="54" t="s">
         <v>199</v>
@@ -3601,13 +3957,13 @@
         <v>199</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
@@ -3617,10 +3973,10 @@
         <v>209</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>199</v>
@@ -3634,10 +3990,10 @@
         <v>209</v>
       </c>
       <c r="B33" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="98" t="s">
         <v>354</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>355</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>199</v>
@@ -3750,11 +4106,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="44" customFormat="1">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="51" t="s">
-        <v>437</v>
+      <c r="B42" s="50" t="s">
+        <v>435</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>199</v>
@@ -3763,10 +4119,10 @@
         <v>199</v>
       </c>
       <c r="E42" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>342</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>343</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="59"/>
@@ -4079,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E10"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4158,33 +4514,33 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>220</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="84" t="s">
         <v>389</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>391</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="59"/>
@@ -4340,23 +4696,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="84" t="s">
         <v>390</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>392</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="59"/>
@@ -4512,10 +4868,10 @@
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A30" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="54" t="s">
@@ -4528,7 +4884,7 @@
         <v>199</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="59"/>
@@ -4603,6 +4959,9 @@
     <row r="35" spans="1:6" ht="15.95" customHeight="1">
       <c r="A35" s="83" t="s">
         <v>209</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -4765,20 +5124,20 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>220</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -4791,7 +5150,7 @@
         <v>199</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="59"/>
@@ -4936,20 +5295,20 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>220</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1" ht="78.75">
-      <c r="A7" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -5115,10 +5474,10 @@
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:11" s="44" customFormat="1" ht="78.75">
-      <c r="A19" s="50" t="s">
-        <v>390</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -5270,10 +5629,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="44" customFormat="1" ht="31.5">
-      <c r="A30" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>124</v>
       </c>
       <c r="C30" s="54"/>
@@ -5430,9 +5789,9 @@
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:11" s="44" customFormat="1" ht="31.5">
-      <c r="A44" s="50"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="88" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
@@ -5457,8 +5816,8 @@
       <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:11" s="44" customFormat="1" ht="31.5">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="54"/>
@@ -5522,10 +5881,10 @@
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="50"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
@@ -5689,8 +6048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5708,7 +6067,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1">
       <c r="A1" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -5725,13 +6084,13 @@
         <v>43257</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
       <c r="F2" s="9"/>
       <c r="G2" s="82" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5785,23 +6144,23 @@
         <v>148</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>220</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>151</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -5831,10 +6190,10 @@
       <c r="K9" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="47.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>152</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -5844,13 +6203,13 @@
         <v>199</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H11" s="61"/>
     </row>
@@ -6014,10 +6373,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="47.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>153</v>
       </c>
       <c r="C22" s="54" t="s">
@@ -6027,13 +6386,13 @@
         <v>199</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
@@ -6046,7 +6405,7 @@
         <v>223</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="60">
@@ -6064,7 +6423,7 @@
         <v>157</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="60">
@@ -6082,7 +6441,7 @@
         <v>224</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="60">
@@ -6115,10 +6474,10 @@
         <v>209</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="60">
@@ -6128,7 +6487,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31.5">
@@ -6139,7 +6498,7 @@
         <v>162</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="60">
@@ -6195,10 +6554,10 @@
         <v>209</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>273</v>
+        <v>368</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>272</v>
       </c>
       <c r="E31" s="60" t="s">
         <v>199</v>
@@ -6207,7 +6566,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="31.5">
@@ -6231,83 +6590,83 @@
       <c r="A33" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="60" t="s">
         <v>276</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>277</v>
       </c>
       <c r="D33" s="79"/>
       <c r="E33" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F33" s="90"/>
       <c r="G33" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="47.25">
       <c r="A34" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B34" s="53" t="s">
-        <v>279</v>
+      <c r="B34" s="52" t="s">
+        <v>278</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>217</v>
       </c>
       <c r="D34" s="79"/>
       <c r="E34" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F34" s="90"/>
       <c r="G34" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="63">
       <c r="A35" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B35" s="53" t="s">
-        <v>281</v>
+      <c r="B35" s="52" t="s">
+        <v>280</v>
       </c>
       <c r="C35" s="60" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="79"/>
       <c r="E35" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F35" s="90"/>
       <c r="G35" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.5">
       <c r="A36" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>283</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>284</v>
       </c>
       <c r="D36" s="79"/>
       <c r="E36" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F36" s="90"/>
       <c r="G36" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="31.5">
       <c r="A37" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="52" t="s">
         <v>242</v>
       </c>
       <c r="C37" s="60" t="s">
@@ -6315,19 +6674,19 @@
       </c>
       <c r="D37" s="80"/>
       <c r="E37" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F37" s="90"/>
       <c r="G37" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="47.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="51" t="s">
-        <v>305</v>
+      <c r="B38" s="50" t="s">
+        <v>304</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>199</v>
@@ -6336,13 +6695,13 @@
         <v>199</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
@@ -6355,7 +6714,7 @@
         <v>231</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>199</v>
@@ -6372,7 +6731,7 @@
         <v>232</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>199</v>
@@ -6398,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="31.5">
@@ -6423,10 +6782,10 @@
         <v>209</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>199</v>
@@ -6457,7 +6816,7 @@
         <v>209</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>239</v>
@@ -6469,7 +6828,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6519,7 +6878,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6531,26 +6890,26 @@
       <c r="A50" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>230</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E50" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F50" s="90"/>
       <c r="G50" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="31.5">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B51" s="51" t="s">
-        <v>290</v>
+      <c r="B51" s="50" t="s">
+        <v>289</v>
       </c>
       <c r="C51" s="54" t="s">
         <v>199</v>
@@ -6559,13 +6918,13 @@
         <v>199</v>
       </c>
       <c r="E51" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F51" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="G51" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H51" s="59"/>
       <c r="I51" s="59"/>
@@ -6578,7 +6937,7 @@
         <v>245</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>199</v>
@@ -6595,7 +6954,7 @@
         <v>246</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E53" s="44" t="s">
         <v>199</v>
@@ -6612,7 +6971,7 @@
         <v>247</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>199</v>
@@ -6629,7 +6988,7 @@
         <v>250</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E55" s="44" t="s">
         <v>199</v>
@@ -6646,7 +7005,7 @@
         <v>251</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E56" s="44" t="s">
         <v>199</v>
@@ -6654,193 +7013,187 @@
       <c r="F56" s="7">
         <v>5</v>
       </c>
-      <c r="G56" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="7" t="s">
+      <c r="G56" s="48"/>
+    </row>
+    <row r="57" spans="1:9" ht="31.5">
+      <c r="B57" s="52" t="s">
         <v>252</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>254</v>
+      <c r="E57" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="90"/>
+      <c r="G57" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>222</v>
-      </c>
+      <c r="C58" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="90"/>
       <c r="G58" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="31.5">
       <c r="A59" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E59" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F59" s="90"/>
       <c r="G59" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="31.5">
       <c r="A60" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B60" s="53" t="s">
-        <v>292</v>
+      <c r="B60" s="52" t="s">
+        <v>291</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E60" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F60" s="90"/>
       <c r="G60" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>240</v>
       </c>
       <c r="C61" s="44" t="s">
         <v>241</v>
       </c>
       <c r="E61" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F61" s="90"/>
       <c r="G61" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="52" t="s">
         <v>238</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E62" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F62" s="90"/>
       <c r="G62" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="31.5">
       <c r="A63" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="53" t="s">
-        <v>293</v>
+      <c r="B63" s="52" t="s">
+        <v>292</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>243</v>
       </c>
       <c r="E63" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F63" s="90"/>
       <c r="G63" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="47.25">
       <c r="A64" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="E64" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F64" s="90"/>
       <c r="G64" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.5">
       <c r="A65" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="E65" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F65" s="90"/>
       <c r="G65" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="31.5">
       <c r="A66" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="E66" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F66" s="90"/>
       <c r="G66" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="C2:E5"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E59:F59"/>
@@ -6851,6 +7204,8 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E64:F64"/>
@@ -6883,7 +7238,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -6949,20 +7304,20 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>164</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -6989,10 +7344,10 @@
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -7002,13 +7357,13 @@
         <v>199</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="61"/>
     </row>
@@ -7193,11 +7548,11 @@
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>375</v>
+      <c r="B20" s="49" t="s">
+        <v>373</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>199</v>
@@ -7206,13 +7561,13 @@
         <v>199</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
@@ -7350,11 +7705,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>376</v>
+      <c r="B31" s="50" t="s">
+        <v>374</v>
       </c>
       <c r="C31" s="54" t="s">
         <v>199</v>
@@ -7363,13 +7718,13 @@
         <v>199</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
@@ -7504,11 +7859,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="51" t="s">
-        <v>290</v>
+      <c r="B42" s="50" t="s">
+        <v>289</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>199</v>
@@ -7517,13 +7872,13 @@
         <v>199</v>
       </c>
       <c r="E42" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="G42" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
@@ -7852,7 +8207,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -7914,20 +8269,20 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="54" t="s">
         <v>199</v>
       </c>
@@ -7952,10 +8307,10 @@
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="54" t="s">
         <v>199</v>
       </c>
@@ -7963,13 +8318,13 @@
         <v>199</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="61"/>
     </row>
@@ -8144,10 +8499,10 @@
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="54" t="s">
         <v>199</v>
       </c>
@@ -8155,13 +8510,13 @@
         <v>199</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
@@ -8287,10 +8642,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="54" t="s">
         <v>199</v>
       </c>
@@ -8298,13 +8653,13 @@
         <v>199</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
@@ -8439,10 +8794,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="54" t="s">
         <v>199</v>
       </c>
@@ -8450,13 +8805,13 @@
         <v>199</v>
       </c>
       <c r="E42" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="G42" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
@@ -8785,7 +9140,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -8847,20 +9202,20 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="54" t="s">
         <v>199</v>
       </c>
@@ -8885,10 +9240,10 @@
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="54" t="s">
         <v>199</v>
       </c>
@@ -8896,13 +9251,13 @@
         <v>199</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="61"/>
     </row>
@@ -9077,10 +9432,10 @@
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="54" t="s">
         <v>199</v>
       </c>
@@ -9088,13 +9443,13 @@
         <v>199</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
@@ -9220,10 +9575,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="54" t="s">
         <v>199</v>
       </c>
@@ -9231,13 +9586,13 @@
         <v>199</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
@@ -9372,10 +9727,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="54" t="s">
         <v>199</v>
       </c>
@@ -9383,13 +9738,13 @@
         <v>199</v>
       </c>
       <c r="E42" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="G42" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
@@ -9699,26 +10054,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="45.875" customWidth="1"/>
+    <col min="8" max="8" width="42.375" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -9731,7 +10087,9 @@
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="26">
+        <v>43245</v>
+      </c>
       <c r="C2" s="91" t="s">
         <v>187</v>
       </c>
@@ -9754,7 +10112,9 @@
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
@@ -9780,20 +10140,25 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="44" customFormat="1">
-      <c r="A7" s="50" t="s">
+      <c r="H6" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="44" customFormat="1" ht="47.25">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="49" t="s">
+        <v>438</v>
+      </c>
       <c r="C7" s="54" t="s">
         <v>199</v>
       </c>
@@ -9802,8 +10167,10 @@
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="59"/>
+      <c r="G7" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -9818,10 +10185,12 @@
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="49" t="s">
+        <v>439</v>
+      </c>
       <c r="C9" s="54" t="s">
         <v>199</v>
       </c>
@@ -9829,21 +10198,26 @@
         <v>199</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="H9" s="61"/>
+        <v>336</v>
+      </c>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:11" s="69" customFormat="1">
       <c r="A10" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="E10" s="60">
         <v>1</v>
       </c>
@@ -9860,7 +10234,12 @@
       <c r="A11" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="E11" s="60">
         <v>2</v>
       </c>
@@ -9873,11 +10252,16 @@
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
     </row>
-    <row r="12" spans="1:11" s="69" customFormat="1">
+    <row r="12" spans="1:11" s="69" customFormat="1" ht="31.5">
       <c r="A12" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>443</v>
+      </c>
       <c r="E12" s="60">
         <v>3</v>
       </c>
@@ -9894,7 +10278,12 @@
       <c r="A13" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="E13" s="60">
         <v>4</v>
       </c>
@@ -9911,7 +10300,12 @@
       <c r="A14" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="E14" s="60">
         <v>5</v>
       </c>
@@ -9928,7 +10322,7 @@
       <c r="A15" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="7"/>
       <c r="E15" s="60">
         <v>6</v>
       </c>
@@ -9945,7 +10339,7 @@
       <c r="A16" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="7"/>
       <c r="E16" s="60">
         <v>7</v>
       </c>
@@ -9962,7 +10356,7 @@
       <c r="A17" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="7"/>
       <c r="E17" s="60">
         <v>8</v>
       </c>
@@ -9979,7 +10373,7 @@
       <c r="A18" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="7"/>
       <c r="E18" s="44" t="s">
         <v>199</v>
       </c>
@@ -9996,7 +10390,7 @@
       <c r="A19" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="7"/>
       <c r="E19" s="44" t="s">
         <v>199</v>
       </c>
@@ -10010,10 +10404,10 @@
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="54" t="s">
         <v>199</v>
       </c>
@@ -10021,44 +10415,62 @@
         <v>199</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="59"/>
+        <v>335</v>
+      </c>
+      <c r="H20" s="37"/>
       <c r="I20" s="59"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" s="44" customFormat="1" ht="47.25">
       <c r="A21" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>471</v>
+      </c>
       <c r="E21" s="60">
         <v>1</v>
       </c>
       <c r="F21" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:11" s="44" customFormat="1" ht="31.5">
       <c r="A22" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>426</v>
+      </c>
       <c r="E22" s="60">
         <v>2</v>
       </c>
       <c r="F22" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:11" s="44" customFormat="1">
       <c r="A23" s="68" t="s">
         <v>209</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="E23" s="60">
         <v>3</v>
@@ -10066,10 +10478,17 @@
       <c r="F23" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" s="44" customFormat="1" ht="47.25">
       <c r="A24" s="68" t="s">
         <v>209</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>472</v>
       </c>
       <c r="E24" s="60">
         <v>4</v>
@@ -10078,12 +10497,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="29" customFormat="1">
+    <row r="25" spans="1:11" s="108" customFormat="1" ht="31.5">
       <c r="A25" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="E25" s="60">
         <v>5</v>
       </c>
@@ -10091,7 +10514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="29" customFormat="1">
+    <row r="26" spans="1:11" s="108" customFormat="1">
       <c r="A26" s="68" t="s">
         <v>209</v>
       </c>
@@ -10101,8 +10524,9 @@
       <c r="F26" s="60">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="29" customFormat="1">
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" s="108" customFormat="1">
       <c r="A27" s="68" t="s">
         <v>209</v>
       </c>
@@ -10113,159 +10537,195 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="29" customFormat="1">
+    <row r="28" spans="1:11" s="104" customFormat="1">
       <c r="A28" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="E28" s="60">
         <v>8</v>
       </c>
       <c r="F28" s="60">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="29" customFormat="1">
+      <c r="H28" s="105"/>
+    </row>
+    <row r="29" spans="1:11" s="104" customFormat="1">
       <c r="A29" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="E29" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F29" s="60">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="29" customFormat="1">
+      <c r="H29" s="105"/>
+    </row>
+    <row r="30" spans="1:11" s="104" customFormat="1">
       <c r="A30" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="E30" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F30" s="60">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="51" t="s">
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" spans="1:11" s="104" customFormat="1" ht="31.5">
+      <c r="A31" s="68"/>
+      <c r="B31" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E31" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" s="90"/>
+      <c r="G31" s="109" t="s">
+        <v>473</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="104" customFormat="1" ht="78.75">
+      <c r="A32" s="68"/>
+      <c r="B32" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="C32" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="44" customFormat="1" ht="63">
+      <c r="A33" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-    </row>
-    <row r="32" spans="1:11" s="44" customFormat="1">
-      <c r="A32" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="60"/>
-      <c r="E32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="44" customFormat="1">
-      <c r="A33" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="60"/>
-      <c r="E33" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2</v>
-      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" s="44" customFormat="1">
       <c r="A34" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="60"/>
+      <c r="B34" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>452</v>
+      </c>
       <c r="E34" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F34" s="7">
-        <v>3</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:9" s="44" customFormat="1">
       <c r="A35" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="79" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>454</v>
+      </c>
       <c r="E35" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F35" s="7">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H35" s="115" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="44" customFormat="1">
       <c r="A36" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="60"/>
+      <c r="B36" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>456</v>
+      </c>
       <c r="E36" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F36" s="7">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:9" s="44" customFormat="1">
       <c r="A37" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="60"/>
+      <c r="B37" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>458</v>
+      </c>
       <c r="E37" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F37" s="7">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:9" s="44" customFormat="1">
       <c r="A38" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="60"/>
       <c r="E38" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F38" s="7">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:9" s="44" customFormat="1">
       <c r="A39" s="68" t="s">
@@ -10277,354 +10737,526 @@
         <v>199</v>
       </c>
       <c r="F39" s="7">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:9" s="44" customFormat="1">
       <c r="A40" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="60"/>
       <c r="E40" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F40" s="7">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:9" s="44" customFormat="1">
       <c r="A41" s="68" t="s">
         <v>209</v>
       </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="60"/>
       <c r="E41" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F41" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
+        <v>8</v>
+      </c>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:9" s="44" customFormat="1">
+      <c r="A42" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="60"/>
+      <c r="E42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="7">
+        <v>9</v>
+      </c>
+      <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:9" s="44" customFormat="1">
       <c r="A43" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="28"/>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="44" customFormat="1">
-      <c r="A44" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="28"/>
-      <c r="E44" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H43" s="45"/>
+    </row>
+    <row r="44" spans="1:9" s="44" customFormat="1" ht="47.25">
+      <c r="A44" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" s="44" customFormat="1">
       <c r="A45" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>475</v>
+      </c>
       <c r="E45" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A46" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A47" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="44" customFormat="1">
-      <c r="A46" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="28"/>
-      <c r="E46" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="G47" s="111" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A48" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="44" customFormat="1">
-      <c r="A47" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="28"/>
-      <c r="E47" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="7">
+    <row r="49" spans="1:8" s="44" customFormat="1" ht="47.25">
+      <c r="A49" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="29" customFormat="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3" s="29" customFormat="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-    </row>
-    <row r="50" spans="1:3" s="29" customFormat="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3" s="29" customFormat="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" s="29" customFormat="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="1:3" s="29" customFormat="1">
+      <c r="G49" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="44" customFormat="1">
+      <c r="A50" s="68"/>
+      <c r="B50" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="93"/>
+      <c r="G50" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="H50" s="45"/>
+    </row>
+    <row r="51" spans="1:8" s="108" customFormat="1" ht="63">
+      <c r="A51" s="9"/>
+      <c r="B51" s="120" t="s">
+        <v>462</v>
+      </c>
+      <c r="C51" s="110" t="s">
+        <v>463</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="93"/>
+      <c r="G51" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="111" customFormat="1" ht="63">
+      <c r="A52" s="53"/>
+      <c r="B52" s="120" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="110" t="s">
+        <v>465</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="93"/>
+      <c r="G52" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="111" customFormat="1" ht="63">
       <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" s="29" customFormat="1">
+      <c r="B53" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="C53" s="118" t="s">
+        <v>467</v>
+      </c>
+      <c r="D53" s="108"/>
+      <c r="E53" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="93"/>
+      <c r="G53" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="111" customFormat="1">
       <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3" s="29" customFormat="1">
+      <c r="D54" s="44"/>
+    </row>
+    <row r="55" spans="1:8" s="29" customFormat="1">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" s="29" customFormat="1">
+      <c r="H55" s="100"/>
+    </row>
+    <row r="56" spans="1:8" s="29" customFormat="1">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:3" s="29" customFormat="1">
+      <c r="H56" s="100"/>
+    </row>
+    <row r="57" spans="1:8" s="29" customFormat="1">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3" s="29" customFormat="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-    </row>
-    <row r="59" spans="1:3" s="29" customFormat="1">
+      <c r="H57" s="100"/>
+    </row>
+    <row r="58" spans="1:8" s="29" customFormat="1">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="H58" s="100"/>
+    </row>
+    <row r="59" spans="1:8" s="29" customFormat="1">
       <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3" s="29" customFormat="1">
+      <c r="H59" s="100"/>
+    </row>
+    <row r="60" spans="1:8" s="29" customFormat="1">
       <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="1:3" s="29" customFormat="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:3" s="29" customFormat="1">
+      <c r="H60" s="100"/>
+    </row>
+    <row r="61" spans="1:8" s="29" customFormat="1">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="H61" s="100"/>
+    </row>
+    <row r="62" spans="1:8" s="29" customFormat="1">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="1:3" s="29" customFormat="1">
+      <c r="H62" s="100"/>
+    </row>
+    <row r="63" spans="1:8" s="29" customFormat="1">
       <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:3" s="29" customFormat="1">
+      <c r="H63" s="100"/>
+    </row>
+    <row r="64" spans="1:8" s="29" customFormat="1">
       <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="20"/>
-    </row>
-    <row r="65" spans="1:3" s="29" customFormat="1">
+      <c r="H64" s="100"/>
+    </row>
+    <row r="65" spans="1:8" s="29" customFormat="1">
       <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="1:3" s="29" customFormat="1">
+      <c r="H65" s="100"/>
+    </row>
+    <row r="66" spans="1:8" s="29" customFormat="1">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="1:3" s="29" customFormat="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-    </row>
-    <row r="68" spans="1:3" s="29" customFormat="1">
-      <c r="A68" s="30"/>
+      <c r="H66" s="100"/>
+    </row>
+    <row r="67" spans="1:8" s="29" customFormat="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="H67" s="100"/>
+    </row>
+    <row r="68" spans="1:8" s="29" customFormat="1">
+      <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="1:3" s="29" customFormat="1">
-      <c r="A69" s="30"/>
+      <c r="H68" s="100"/>
+    </row>
+    <row r="69" spans="1:8" s="29" customFormat="1">
+      <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" s="29" customFormat="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" spans="1:3" s="29" customFormat="1">
-      <c r="A71" s="20"/>
+      <c r="H69" s="100"/>
+    </row>
+    <row r="70" spans="1:8" s="29" customFormat="1">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="H70" s="100"/>
+    </row>
+    <row r="71" spans="1:8" s="29" customFormat="1">
+      <c r="A71" s="30"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" s="29" customFormat="1">
-      <c r="A72" s="20"/>
+      <c r="H71" s="100"/>
+    </row>
+    <row r="72" spans="1:8" s="29" customFormat="1">
+      <c r="A72" s="30"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-    </row>
-    <row r="73" spans="1:3" s="29" customFormat="1">
+      <c r="H72" s="100"/>
+    </row>
+    <row r="73" spans="1:8" s="29" customFormat="1">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-    </row>
-    <row r="74" spans="1:3" s="29" customFormat="1">
+      <c r="H73" s="100"/>
+    </row>
+    <row r="74" spans="1:8" s="29" customFormat="1">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-    </row>
-    <row r="75" spans="1:3" s="29" customFormat="1">
+      <c r="H74" s="100"/>
+    </row>
+    <row r="75" spans="1:8" s="29" customFormat="1">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="1:3" s="29" customFormat="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-    </row>
-    <row r="77" spans="1:3" s="29" customFormat="1">
+      <c r="H75" s="100"/>
+    </row>
+    <row r="76" spans="1:8" s="29" customFormat="1">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="H76" s="100"/>
+    </row>
+    <row r="77" spans="1:8" s="29" customFormat="1">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="1:3" s="29" customFormat="1">
+      <c r="H77" s="100"/>
+    </row>
+    <row r="78" spans="1:8" s="29" customFormat="1">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-    </row>
-    <row r="79" spans="1:3" s="29" customFormat="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="1:3" s="29" customFormat="1">
+      <c r="H78" s="100"/>
+    </row>
+    <row r="79" spans="1:8" s="29" customFormat="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="H79" s="100"/>
+    </row>
+    <row r="80" spans="1:8" s="29" customFormat="1">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
-    </row>
-    <row r="81" spans="1:3" s="29" customFormat="1">
+      <c r="H80" s="100"/>
+    </row>
+    <row r="81" spans="1:8" s="29" customFormat="1">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-    </row>
-    <row r="82" spans="1:3" s="29" customFormat="1">
+      <c r="H81" s="100"/>
+    </row>
+    <row r="82" spans="1:8" s="29" customFormat="1">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
-    </row>
-    <row r="83" spans="1:3" s="29" customFormat="1">
+      <c r="H82" s="100"/>
+    </row>
+    <row r="83" spans="1:8" s="29" customFormat="1">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="1:3" s="29" customFormat="1">
+      <c r="H83" s="100"/>
+    </row>
+    <row r="84" spans="1:8" s="29" customFormat="1">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="1:3" s="29" customFormat="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-    </row>
-    <row r="86" spans="1:3" s="29" customFormat="1">
+      <c r="H84" s="100"/>
+    </row>
+    <row r="85" spans="1:8" s="29" customFormat="1">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="H85" s="100"/>
+    </row>
+    <row r="86" spans="1:8" s="29" customFormat="1">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
-    </row>
-    <row r="87" spans="1:3" s="29" customFormat="1">
+      <c r="H86" s="100"/>
+    </row>
+    <row r="87" spans="1:8" s="29" customFormat="1">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-    </row>
-    <row r="88" spans="1:3" s="29" customFormat="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-    </row>
-    <row r="89" spans="1:3" s="29" customFormat="1">
+      <c r="C87" s="20"/>
+      <c r="H87" s="100"/>
+    </row>
+    <row r="88" spans="1:8" s="29" customFormat="1">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="H88" s="100"/>
+    </row>
+    <row r="89" spans="1:8" s="29" customFormat="1">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
-    </row>
-    <row r="90" spans="1:3" s="29" customFormat="1">
+      <c r="H89" s="100"/>
+    </row>
+    <row r="90" spans="1:8" s="29" customFormat="1">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-    </row>
-    <row r="91" spans="1:3" s="29" customFormat="1">
+      <c r="C90" s="21"/>
+      <c r="H90" s="100"/>
+    </row>
+    <row r="91" spans="1:8" s="29" customFormat="1">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="H91" s="100"/>
+    </row>
+    <row r="92" spans="1:8" s="29" customFormat="1">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
+      <c r="H92" s="100"/>
+    </row>
+    <row r="93" spans="1:8" s="29" customFormat="1">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="H93" s="100"/>
+    </row>
+    <row r="94" spans="1:8" s="29" customFormat="1">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="H94" s="100"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="C2:E5"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10651,7 +11283,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -10713,20 +11345,20 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="44" customFormat="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="54" t="s">
         <v>199</v>
       </c>
@@ -10751,10 +11383,10 @@
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="54" t="s">
         <v>199</v>
       </c>
@@ -10762,13 +11394,13 @@
         <v>199</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="61"/>
     </row>
@@ -10943,10 +11575,10 @@
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="54" t="s">
         <v>199</v>
       </c>
@@ -10954,13 +11586,13 @@
         <v>199</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
@@ -11086,10 +11718,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="54" t="s">
         <v>199</v>
       </c>
@@ -11097,13 +11729,13 @@
         <v>199</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
@@ -11238,10 +11870,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="54" t="s">
         <v>199</v>
       </c>
@@ -11249,13 +11881,13 @@
         <v>199</v>
       </c>
       <c r="E42" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="G42" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
@@ -11567,8 +12199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11580,11 +12212,12 @@
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="45.875" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -11597,7 +12230,9 @@
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="26">
+        <v>43245</v>
+      </c>
       <c r="C2" s="91" t="s">
         <v>187</v>
       </c>
@@ -11620,7 +12255,9 @@
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
@@ -11646,20 +12283,25 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="44" customFormat="1">
-      <c r="A7" s="50" t="s">
+      <c r="H6" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="44" customFormat="1" ht="47.25">
+      <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="49" t="s">
+        <v>185</v>
+      </c>
       <c r="C7" s="54" t="s">
         <v>199</v>
       </c>
@@ -11668,8 +12310,10 @@
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="59"/>
+      <c r="G7" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -11684,10 +12328,12 @@
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="49" t="s">
+        <v>484</v>
+      </c>
       <c r="C9" s="54" t="s">
         <v>199</v>
       </c>
@@ -11695,21 +12341,26 @@
         <v>199</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="H9" s="61"/>
+        <v>336</v>
+      </c>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:11" s="69" customFormat="1">
       <c r="A10" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>481</v>
+      </c>
       <c r="E10" s="60">
         <v>1</v>
       </c>
@@ -11722,11 +12373,16 @@
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="1:11" s="69" customFormat="1">
+    <row r="11" spans="1:11" s="69" customFormat="1" ht="31.5">
       <c r="A11" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>483</v>
+      </c>
       <c r="E11" s="60">
         <v>2</v>
       </c>
@@ -11876,10 +12532,12 @@
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="49" t="s">
+        <v>485</v>
+      </c>
       <c r="C20" s="54" t="s">
         <v>199</v>
       </c>
@@ -11887,34 +12545,47 @@
         <v>199</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="59"/>
+        <v>335</v>
+      </c>
+      <c r="H20" s="37"/>
       <c r="I20" s="59"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="31.5">
       <c r="A21" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>487</v>
+      </c>
       <c r="E21" s="60">
         <v>1</v>
       </c>
       <c r="F21" s="60">
         <v>1</v>
       </c>
+      <c r="H21" s="112" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="79" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>489</v>
+      </c>
       <c r="E22" s="60">
         <v>2</v>
       </c>
@@ -11926,17 +12597,32 @@
       <c r="A23" s="68" t="s">
         <v>209</v>
       </c>
+      <c r="B23" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>491</v>
+      </c>
       <c r="E23" s="60">
         <v>3</v>
       </c>
       <c r="F23" s="60">
         <v>3</v>
       </c>
+      <c r="H23" s="112" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="68" t="s">
         <v>209</v>
       </c>
+      <c r="B24" s="114" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>446</v>
+      </c>
       <c r="E24" s="60">
         <v>4</v>
       </c>
@@ -11948,24 +12634,40 @@
       <c r="A25" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>494</v>
+      </c>
       <c r="E25" s="60">
         <v>5</v>
       </c>
       <c r="F25" s="60">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="29" customFormat="1">
+      <c r="H25" s="113" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="29" customFormat="1" ht="78.75">
       <c r="A26" s="68" t="s">
         <v>209</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>145</v>
       </c>
       <c r="E26" s="60">
         <v>6</v>
       </c>
       <c r="F26" s="60">
         <v>6</v>
+      </c>
+      <c r="H26" s="100" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="29" customFormat="1">
@@ -12019,10 +12721,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="50" t="s">
+        <v>503</v>
+      </c>
       <c r="C31" s="54" t="s">
         <v>199</v>
       </c>
@@ -12030,23 +12734,27 @@
         <v>199</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="H31" s="59"/>
+        <v>318</v>
+      </c>
+      <c r="H31" s="37"/>
       <c r="I31" s="59"/>
     </row>
-    <row r="32" spans="1:11" s="44" customFormat="1">
+    <row r="32" spans="1:11" s="44" customFormat="1" ht="31.5">
       <c r="A32" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="60"/>
+      <c r="B32" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>349</v>
+      </c>
       <c r="E32" s="7" t="s">
         <v>199</v>
       </c>
@@ -12058,8 +12766,12 @@
       <c r="A33" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="60"/>
+      <c r="B33" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>502</v>
+      </c>
       <c r="E33" s="7" t="s">
         <v>199</v>
       </c>
@@ -12171,10 +12883,12 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="C42" s="54" t="s">
         <v>199</v>
       </c>
@@ -12182,36 +12896,47 @@
         <v>199</v>
       </c>
       <c r="E42" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="G42" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
     </row>
-    <row r="43" spans="1:9" s="44" customFormat="1">
+    <row r="43" spans="1:9" s="44" customFormat="1" ht="31.5">
       <c r="A43" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="116" t="s">
+        <v>438</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>504</v>
+      </c>
       <c r="E43" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
+      <c r="H43" s="45" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="44" spans="1:9" s="44" customFormat="1">
       <c r="A44" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>249</v>
+      </c>
       <c r="E44" s="44" t="s">
         <v>199</v>
       </c>
@@ -12223,8 +12948,12 @@
       <c r="A45" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="E45" s="44" t="s">
         <v>199</v>
       </c>
@@ -12236,13 +12965,20 @@
       <c r="A46" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="28"/>
+      <c r="B46" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>467</v>
+      </c>
       <c r="E46" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F46" s="7">
         <v>4</v>
+      </c>
+      <c r="H46" s="117" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="44" customFormat="1">
@@ -12500,8 +13236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12519,7 +13255,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="64" customFormat="1" ht="26.25">
       <c r="A1" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -12536,12 +13272,12 @@
         <v>43257</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
       <c r="G2" s="71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12582,16 +13318,16 @@
         <v>148</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>220</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="47" customFormat="1">
@@ -12624,10 +13360,10 @@
     </row>
     <row r="9" spans="1:10" s="47" customFormat="1" ht="47.25">
       <c r="A9" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>199</v>
@@ -12636,13 +13372,13 @@
         <v>199</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="36"/>
     </row>
@@ -12654,7 +13390,7 @@
         <v>155</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E10" s="66">
         <v>1</v>
@@ -12671,7 +13407,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E11" s="66">
         <v>2</v>
@@ -12688,7 +13424,7 @@
         <v>181</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12" s="66">
         <v>3</v>
@@ -12705,7 +13441,7 @@
         <v>183</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13" s="67">
         <v>4</v>
@@ -12719,10 +13455,10 @@
         <v>209</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="E14" s="67">
         <v>5</v>
@@ -12798,40 +13534,40 @@
       <c r="A20" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>182</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="47" customFormat="1" ht="63">
       <c r="A22" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>177</v>
@@ -12843,13 +13579,13 @@
         <v>199</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H22" s="36"/>
     </row>
@@ -12861,7 +13597,7 @@
         <v>178</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E23" s="66">
         <v>1</v>
@@ -12875,10 +13611,10 @@
         <v>209</v>
       </c>
       <c r="B24" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="E24" s="66">
         <v>2</v>
@@ -12892,10 +13628,10 @@
         <v>209</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E25" s="66">
         <v>3</v>
@@ -12909,10 +13645,10 @@
         <v>209</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E26" s="67">
         <v>4</v>
@@ -12921,7 +13657,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="47.25">
@@ -12929,10 +13665,10 @@
         <v>209</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E27" s="67">
         <v>5</v>
@@ -12941,7 +13677,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -12949,10 +13685,10 @@
         <v>209</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E28" s="67">
         <v>6</v>
@@ -12966,7 +13702,7 @@
         <v>209</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>145</v>
@@ -12983,10 +13719,10 @@
         <v>209</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E30" s="67">
         <v>8</v>
@@ -12995,7 +13731,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -13025,26 +13761,26 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="47" customFormat="1" ht="63">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="C33" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="G33" s="36" t="s">
         <v>318</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>319</v>
       </c>
       <c r="H33" s="36"/>
     </row>
@@ -13053,10 +13789,10 @@
         <v>209</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="E34" s="66" t="s">
         <v>222</v>
@@ -13070,10 +13806,10 @@
         <v>209</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="77" t="s">
         <v>329</v>
-      </c>
-      <c r="C35" s="77" t="s">
-        <v>330</v>
       </c>
       <c r="E35" s="66" t="s">
         <v>222</v>
@@ -13082,10 +13818,10 @@
         <v>2</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.5">
@@ -13093,10 +13829,10 @@
         <v>209</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="E36" s="66" t="s">
         <v>222</v>
@@ -13113,7 +13849,7 @@
         <v>131</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E37" s="66" t="s">
         <v>222</v>
@@ -13122,7 +13858,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -13192,27 +13928,27 @@
     </row>
     <row r="44" spans="1:8" ht="47.25">
       <c r="A44" s="75"/>
-      <c r="B44" s="53" t="s">
-        <v>327</v>
+      <c r="B44" s="52" t="s">
+        <v>326</v>
       </c>
       <c r="C44" s="7"/>
       <c r="E44" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="47" customFormat="1" ht="47.25">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B45" s="51" t="s">
-        <v>290</v>
+      <c r="B45" s="50" t="s">
+        <v>289</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>199</v>
@@ -13221,13 +13957,13 @@
         <v>199</v>
       </c>
       <c r="E45" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="F45" s="55" t="s">
-        <v>343</v>
-      </c>
       <c r="G45" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H45" s="36"/>
     </row>
@@ -13236,10 +13972,10 @@
         <v>209</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="46" t="s">
         <v>347</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>348</v>
       </c>
       <c r="E46" s="66" t="s">
         <v>222</v>
@@ -13253,10 +13989,10 @@
         <v>209</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="46" t="s">
         <v>349</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>350</v>
       </c>
       <c r="E47" s="66" t="s">
         <v>222</v>
@@ -13270,10 +14006,10 @@
         <v>209</v>
       </c>
       <c r="B48" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="46" t="s">
         <v>351</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>352</v>
       </c>
       <c r="E48" s="66" t="s">
         <v>222</v>
@@ -13304,10 +14040,10 @@
         <v>209</v>
       </c>
       <c r="B50" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="77" t="s">
         <v>354</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>355</v>
       </c>
       <c r="E50" s="66" t="s">
         <v>222</v>
@@ -13320,18 +14056,18 @@
       <c r="A51" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="C51" s="53" t="s">
+      <c r="B51" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F51" s="93"/>
       <c r="G51" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:7">

--- a/design/content/VA.gov-Nav-Hub-Links.xlsx
+++ b/design/content/VA.gov-Nav-Hub-Links.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="884" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Top Nav" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="577">
   <si>
     <t>Inside VA</t>
   </si>
@@ -1965,12 +1965,6 @@
     <t>Survivor Pension</t>
   </si>
   <si>
-    <t>Apply for Pension Benefits</t>
-  </si>
-  <si>
-    <t>vets.gov/track-claims</t>
-  </si>
-  <si>
     <t>vets.gov/disability-benefits/claims-appeal/</t>
   </si>
   <si>
@@ -2095,12 +2089,6 @@
   </si>
   <si>
     <t>benefits.va.gov/INSURANCE/SOES.asp#SOES_FAQs</t>
-  </si>
-  <si>
-    <t>Access Your Policy</t>
-  </si>
-  <si>
-    <t>insurance.va.gov/home/</t>
   </si>
   <si>
     <t>Update Your Beneficiaries</t>
@@ -2239,12 +2227,494 @@
   <si>
     <t xml:space="preserve">Remove - does not fall within the guidelines of related benefit or service. </t>
   </si>
+  <si>
+    <t>Keep vets.gov page content as entry point.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insurance.va.gov/home/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.vets.gov/life-insurance/manage-your-policy/</t>
+    </r>
+  </si>
+  <si>
+    <t>Capability does not exist on vets.gov currently.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vets.gov/track-claims</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.ebenefits.va.gov/ebenefits/about/feature?feature=compensation-claim-appeal-status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Mange Your Policy</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing from top menu.  This will be a link within the Manage Your Policy page with all other policy links. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This relates to general support, not just for post applying/managing benefits.  Removing from this section with the intent of finding a better placement for it. It will also be linked in the content of many pages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefit available to Survivors/Beneficiaries.  Move to Get Benefits. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moved from More spoke. </t>
+  </si>
+  <si>
+    <t>Closed and Reopened Life Insurance Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a focus area at this time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This area to expose other VA benefits that may be of interest to the user outside of the current benefit type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Care </t>
+  </si>
+  <si>
+    <t>https://www.vets.gov/health-care/</t>
+  </si>
+  <si>
+    <t>Content in this hub is focused on getting Veterans (and other beneficiaries) to all eligible housing assistance related benefits and tools.</t>
+  </si>
+  <si>
+    <t>Content in this spoke is focused on providing information users need to know to apply, as well as access to tools to track and manage their benefits.</t>
+  </si>
+  <si>
+    <t>Get Adapted Housing Assistance</t>
+  </si>
+  <si>
+    <t>More Shousing Assistance Information and Resources</t>
+  </si>
+  <si>
+    <t>vets.gov/housing-assistance/home-loans/loan-options/</t>
+  </si>
+  <si>
+    <t>vets.gov/housing-assistance/home-loans/eligibility/</t>
+  </si>
+  <si>
+    <t>Home Loan Assistance for Surviving Spouse</t>
+  </si>
+  <si>
+    <t>vets.gov/families-caregivers/#housing-assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Loans for Native Americans </t>
+  </si>
+  <si>
+    <t>vets.gov/housing-assistance/home-loans/loan-options/nadl/</t>
+  </si>
+  <si>
+    <t>vets.gov/housing-assistance/adaptive-housing-grants/</t>
+  </si>
+  <si>
+    <t>ebenefits.va.gov/ebenefits/about/feature?feature=sah-grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specially Adapted Housing Assistive Technology Grant </t>
+  </si>
+  <si>
+    <t>benefits.va.gov/homeloans/sahat.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply for Specially Adapted Housing </t>
+  </si>
+  <si>
+    <t>vets.gov/housing-assistance/home-loans/trouble-making-payments/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Out Refinance Loan </t>
+  </si>
+  <si>
+    <t>vets.gov/housing-assistance/home-loans/loan-options/cash-out-refinance/</t>
+  </si>
+  <si>
+    <t>Interest Rate Reduction Refinance Loan</t>
+  </si>
+  <si>
+    <t>vets.gov/housing-assistance/home-loans/loan-options/irrrl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vets.gov/facilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance on Natural Disasters </t>
+  </si>
+  <si>
+    <t>benefits.va.gov/homeloans/documents/docs/va_policy_regarding_natural_disasters.pdf</t>
+  </si>
+  <si>
+    <t>hud.gov/i_want_to/talk_to_a_housing_counselor</t>
+  </si>
+  <si>
+    <t>benefits.va.gov/HOMELOANS/contact_rlc_info.asp</t>
+  </si>
+  <si>
+    <t>va.gov/disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 9/20 visited eBenefits pages in FY17. Pertinent for all VBA benefits. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should be, "Find a regional benefit office." We don't call VBA regional offices or other facilities as a "Benefit Center." </t>
+  </si>
+  <si>
+    <t>[Changed structure of spokes to split between Home Loans and Adaptive Housing Grants]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moved from Home Loan spoke. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trouble Making </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mortgage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Payments?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This is not a specific content page, it leads back to the core Home Loans pages.  Review to determine if a separate page for Families is needed. </t>
+  </si>
+  <si>
+    <t>This content is under VA Home Loan Options page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">About </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VA Backed Home Loan Options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>About</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adaptive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Housing Grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for Disabled Veterans</t>
+    </r>
+  </si>
+  <si>
+    <t>This includes all grants - SAH, SHA, TRA, TSAHAT</t>
+  </si>
+  <si>
+    <t>Included under Housing Grants top page.</t>
+  </si>
+  <si>
+    <t>Create new Application process page with link to Apply.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Track</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Your Specially Adapted Housing Claim </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not currently a focus area. </t>
+  </si>
+  <si>
+    <t>This is under Home Loan Options</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Apply for  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a Home Loan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> COE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Contact a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Housing Counseling  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Department of Housing and Urban Development) </t>
+    </r>
+  </si>
+  <si>
+    <t>Apply for Veteran Pension</t>
+  </si>
+  <si>
+    <t>Get A VA Home Loan</t>
+  </si>
+  <si>
+    <t>Track Your Housing Appeal Status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contact a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Regional Loan Centers</t>
+    </r>
+  </si>
+  <si>
+    <t>May remove this to include with general contact/help content.</t>
+  </si>
+  <si>
+    <t>Family and Caregiver Benefits</t>
+  </si>
+  <si>
+    <t>Vocational Rehabilitation and Employment</t>
+  </si>
+  <si>
+    <t>https://www.vets.gov/pension/</t>
+  </si>
+  <si>
+    <t>https://www.vets.gov/life-insurance/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2412,8 +2882,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2456,12 +2941,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2494,7 +2973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2746,20 +3225,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2781,9 +3251,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2809,9 +3276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2829,6 +3293,63 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3182,12 +3703,12 @@
       <c r="B2" s="32">
         <v>43257</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="114" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="H2" s="34" t="s">
         <v>205</v>
       </c>
@@ -3197,10 +3718,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1">
       <c r="A4" s="10" t="s">
@@ -3209,10 +3730,10 @@
       <c r="B4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="8"/>
@@ -3456,11 +3977,11 @@
       <c r="B2" s="26">
         <v>43252</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="42" t="s">
         <v>205</v>
       </c>
@@ -3470,9 +3991,9 @@
         <v>46</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
@@ -3481,16 +4002,16 @@
       <c r="B4" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
       <c r="A6" s="40" t="s">
@@ -3815,7 +4336,7 @@
       <c r="B22" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="93" t="s">
         <v>276</v>
       </c>
       <c r="E22" s="60">
@@ -3832,7 +4353,7 @@
       <c r="B23" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="94" t="s">
         <v>426</v>
       </c>
       <c r="E23" s="60">
@@ -3883,7 +4404,7 @@
       <c r="B26" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="94" t="s">
         <v>430</v>
       </c>
       <c r="E26" s="60">
@@ -3992,7 +4513,7 @@
       <c r="B33" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="95" t="s">
         <v>354</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -4435,7 +4956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -4468,10 +4989,10 @@
       <c r="B2" s="18">
         <v>43231</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="119"/>
       <c r="F2" s="42" t="s">
         <v>205</v>
       </c>
@@ -4481,8 +5002,8 @@
         <v>46</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
     </row>
     <row r="4" spans="1:11" ht="14.1" customHeight="1">
       <c r="A4" s="10" t="s">
@@ -4491,14 +5012,14 @@
       <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="40" t="s">
@@ -4961,7 +5482,7 @@
         <v>209</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -5059,11 +5580,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
       <c r="D1" s="17"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -5075,10 +5596,10 @@
       <c r="B2" s="3">
         <v>43231</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="119"/>
       <c r="F2" s="42" t="s">
         <v>205</v>
       </c>
@@ -5088,8 +5609,8 @@
         <v>46</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="14.1" customHeight="1">
@@ -5099,15 +5620,15 @@
       <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1">
@@ -5233,11 +5754,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
       <c r="D1" s="17"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -5249,10 +5770,10 @@
       <c r="B2" s="18">
         <v>43231</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="119"/>
       <c r="F2" s="85" t="s">
         <v>205</v>
       </c>
@@ -5262,8 +5783,8 @@
         <v>46</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
@@ -5272,14 +5793,14 @@
       <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1">
       <c r="A6" s="40" t="s">
@@ -6048,8 +6569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6083,11 +6604,11 @@
       <c r="B2" s="32">
         <v>43257</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="114" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="9"/>
       <c r="G2" s="82" t="s">
         <v>377</v>
@@ -6098,9 +6619,9 @@
         <v>46</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:11">
@@ -6110,17 +6631,17 @@
       <c r="B4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="12"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:11">
@@ -6597,10 +7118,10 @@
         <v>276</v>
       </c>
       <c r="D33" s="79"/>
-      <c r="E33" s="90" t="s">
+      <c r="E33" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F33" s="90"/>
+      <c r="F33" s="115"/>
       <c r="G33" s="7" t="s">
         <v>277</v>
       </c>
@@ -6616,10 +7137,10 @@
         <v>217</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F34" s="90"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="7" t="s">
         <v>279</v>
       </c>
@@ -6635,10 +7156,10 @@
         <v>145</v>
       </c>
       <c r="D35" s="79"/>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F35" s="90"/>
+      <c r="F35" s="115"/>
       <c r="G35" s="7" t="s">
         <v>281</v>
       </c>
@@ -6654,10 +7175,10 @@
         <v>283</v>
       </c>
       <c r="D36" s="79"/>
-      <c r="E36" s="90" t="s">
+      <c r="E36" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F36" s="90"/>
+      <c r="F36" s="115"/>
       <c r="G36" s="7" t="s">
         <v>284</v>
       </c>
@@ -6673,10 +7194,10 @@
         <v>243</v>
       </c>
       <c r="D37" s="80"/>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F37" s="90"/>
+      <c r="F37" s="115"/>
       <c r="G37" s="7" t="s">
         <v>286</v>
       </c>
@@ -6896,10 +7417,10 @@
       <c r="C50" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="90" t="s">
+      <c r="E50" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F50" s="90"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="44" t="s">
         <v>287</v>
       </c>
@@ -7022,12 +7543,12 @@
       <c r="C57" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F57" s="90"/>
+      <c r="F57" s="115"/>
       <c r="G57" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7040,10 +7561,10 @@
       <c r="C58" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F58" s="90"/>
+      <c r="F58" s="115"/>
       <c r="G58" s="44" t="s">
         <v>343</v>
       </c>
@@ -7058,10 +7579,10 @@
       <c r="C59" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E59" s="90" t="s">
+      <c r="E59" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F59" s="90"/>
+      <c r="F59" s="115"/>
       <c r="G59" s="7" t="s">
         <v>297</v>
       </c>
@@ -7076,10 +7597,10 @@
       <c r="C60" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="90" t="s">
+      <c r="E60" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F60" s="90"/>
+      <c r="F60" s="115"/>
       <c r="G60" s="7" t="s">
         <v>298</v>
       </c>
@@ -7094,10 +7615,10 @@
       <c r="C61" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F61" s="90"/>
+      <c r="F61" s="115"/>
       <c r="G61" s="7" t="s">
         <v>299</v>
       </c>
@@ -7112,10 +7633,10 @@
       <c r="C62" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E62" s="90" t="s">
+      <c r="E62" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F62" s="90"/>
+      <c r="F62" s="115"/>
       <c r="G62" s="7" t="s">
         <v>299</v>
       </c>
@@ -7130,10 +7651,10 @@
       <c r="C63" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E63" s="90" t="s">
+      <c r="E63" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F63" s="90"/>
+      <c r="F63" s="115"/>
       <c r="G63" s="7" t="s">
         <v>299</v>
       </c>
@@ -7148,10 +7669,10 @@
       <c r="C64" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F64" s="90"/>
+      <c r="F64" s="115"/>
       <c r="G64" s="7" t="s">
         <v>300</v>
       </c>
@@ -7166,10 +7687,10 @@
       <c r="C65" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E65" s="90" t="s">
+      <c r="E65" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F65" s="90"/>
+      <c r="F65" s="115"/>
       <c r="G65" s="7" t="s">
         <v>300</v>
       </c>
@@ -7184,16 +7705,21 @@
       <c r="C66" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E66" s="90" t="s">
+      <c r="E66" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F66" s="90"/>
+      <c r="F66" s="115"/>
       <c r="G66" s="7" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
     <mergeCell ref="C2:E5"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E59:F59"/>
@@ -7206,11 +7732,6 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7222,7 +7743,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7254,11 +7775,11 @@
       <c r="B2" s="26">
         <v>43224</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="42" t="s">
         <v>205</v>
       </c>
@@ -7268,9 +7789,9 @@
         <v>46</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
@@ -7279,16 +7800,16 @@
       <c r="B4" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
       <c r="A6" s="40" t="s">
@@ -8221,11 +8742,11 @@
         <v>45</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="42" t="s">
         <v>205</v>
       </c>
@@ -8235,25 +8756,25 @@
         <v>46</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
       <c r="A6" s="40" t="s">
@@ -9154,11 +9675,11 @@
         <v>45</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="42" t="s">
         <v>205</v>
       </c>
@@ -9168,25 +9689,25 @@
         <v>46</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
       <c r="A6" s="40" t="s">
@@ -10057,7 +10578,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B53"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10069,7 +10590,7 @@
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="45.875" customWidth="1"/>
-    <col min="8" max="8" width="42.375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="42.375" style="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
@@ -10088,13 +10609,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="26">
-        <v>43245</v>
-      </c>
-      <c r="C2" s="91" t="s">
+        <v>43259</v>
+      </c>
+      <c r="C2" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="42" t="s">
         <v>205</v>
       </c>
@@ -10104,9 +10625,9 @@
         <v>46</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
@@ -10115,16 +10636,16 @@
       <c r="B4" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
       <c r="A6" s="40" t="s">
@@ -10301,7 +10822,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>445</v>
+        <v>568</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>441</v>
@@ -10431,10 +10952,10 @@
         <v>209</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="E21" s="60">
         <v>1</v>
@@ -10470,7 +10991,7 @@
         <v>168</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E23" s="60">
         <v>3</v>
@@ -10485,10 +11006,10 @@
         <v>209</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" s="103" t="s">
         <v>470</v>
-      </c>
-      <c r="C24" s="107" t="s">
-        <v>472</v>
       </c>
       <c r="E24" s="60">
         <v>4</v>
@@ -10497,7 +11018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="108" customFormat="1" ht="31.5">
+    <row r="25" spans="1:11" s="104" customFormat="1" ht="31.5">
       <c r="A25" s="68" t="s">
         <v>209</v>
       </c>
@@ -10514,7 +11035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="108" customFormat="1">
+    <row r="26" spans="1:11" s="104" customFormat="1">
       <c r="A26" s="68" t="s">
         <v>209</v>
       </c>
@@ -10526,7 +11047,7 @@
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:11" s="108" customFormat="1">
+    <row r="27" spans="1:11" s="104" customFormat="1">
       <c r="A27" s="68" t="s">
         <v>209</v>
       </c>
@@ -10537,7 +11058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="104" customFormat="1">
+    <row r="28" spans="1:11" s="100" customFormat="1">
       <c r="A28" s="68" t="s">
         <v>209</v>
       </c>
@@ -10549,9 +11070,9 @@
       <c r="F28" s="60">
         <v>8</v>
       </c>
-      <c r="H28" s="105"/>
-    </row>
-    <row r="29" spans="1:11" s="104" customFormat="1">
+      <c r="H28" s="101"/>
+    </row>
+    <row r="29" spans="1:11" s="100" customFormat="1">
       <c r="A29" s="68" t="s">
         <v>209</v>
       </c>
@@ -10563,9 +11084,9 @@
       <c r="F29" s="60">
         <v>9</v>
       </c>
-      <c r="H29" s="105"/>
-    </row>
-    <row r="30" spans="1:11" s="104" customFormat="1">
+      <c r="H29" s="101"/>
+    </row>
+    <row r="30" spans="1:11" s="100" customFormat="1">
       <c r="A30" s="68" t="s">
         <v>209</v>
       </c>
@@ -10577,9 +11098,9 @@
       <c r="F30" s="60">
         <v>10</v>
       </c>
-      <c r="H30" s="105"/>
-    </row>
-    <row r="31" spans="1:11" s="104" customFormat="1" ht="31.5">
+      <c r="H30" s="101"/>
+    </row>
+    <row r="31" spans="1:11" s="100" customFormat="1" ht="31.5">
       <c r="A31" s="68"/>
       <c r="B31" s="52" t="s">
         <v>169</v>
@@ -10587,23 +11108,23 @@
       <c r="C31" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="F31" s="90"/>
-      <c r="G31" s="109" t="s">
-        <v>473</v>
+      <c r="F31" s="115"/>
+      <c r="G31" s="105" t="s">
+        <v>471</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="104" customFormat="1" ht="78.75">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="100" customFormat="1" ht="78.75">
       <c r="A32" s="68"/>
       <c r="B32" s="52" t="s">
-        <v>448</v>
-      </c>
-      <c r="C32" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="C32" s="102" t="s">
         <v>145</v>
       </c>
       <c r="E32" s="44"/>
@@ -10612,7 +11133,7 @@
         <v>281</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="44" customFormat="1" ht="63">
@@ -10643,10 +11164,10 @@
         <v>209</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>199</v>
@@ -10661,10 +11182,10 @@
         <v>209</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>199</v>
@@ -10672,8 +11193,8 @@
       <c r="F35" s="7">
         <v>2</v>
       </c>
-      <c r="H35" s="115" t="s">
-        <v>499</v>
+      <c r="H35" s="108" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="44" customFormat="1">
@@ -10681,10 +11202,10 @@
         <v>209</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>199</v>
@@ -10695,15 +11216,15 @@
       <c r="G36" s="7"/>
       <c r="H36" s="45"/>
     </row>
-    <row r="37" spans="1:9" s="44" customFormat="1">
+    <row r="37" spans="1:9" s="44" customFormat="1" ht="31.5">
       <c r="A37" s="68" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>199</v>
@@ -10825,10 +11346,10 @@
         <v>209</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>199</v>
@@ -10842,10 +11363,10 @@
         <v>209</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>199</v>
@@ -10854,7 +11375,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H46" s="45"/>
     </row>
@@ -10863,10 +11384,10 @@
         <v>209</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E47" s="44" t="s">
         <v>199</v>
@@ -10874,8 +11395,8 @@
       <c r="F47" s="7">
         <v>3</v>
       </c>
-      <c r="G47" s="111" t="s">
-        <v>476</v>
+      <c r="G47" s="107" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="44" customFormat="1" ht="31.5">
@@ -10883,10 +11404,10 @@
         <v>209</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E48" s="44" t="s">
         <v>199</v>
@@ -10903,7 +11424,7 @@
         <v>247</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>199</v>
@@ -10912,90 +11433,90 @@
         <v>5</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="44" customFormat="1">
       <c r="A50" s="68"/>
-      <c r="B50" s="119" t="s">
+      <c r="B50" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="110" t="s">
+      <c r="C50" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="93" t="s">
+      <c r="E50" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="F50" s="93"/>
+      <c r="F50" s="118"/>
       <c r="G50" s="44" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H50" s="45"/>
     </row>
-    <row r="51" spans="1:8" s="108" customFormat="1" ht="63">
+    <row r="51" spans="1:8" s="104" customFormat="1" ht="63">
       <c r="A51" s="9"/>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="118" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="118"/>
+      <c r="G51" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="107" customFormat="1" ht="63">
+      <c r="A52" s="53"/>
+      <c r="B52" s="113" t="s">
         <v>462</v>
       </c>
-      <c r="C51" s="110" t="s">
+      <c r="C52" s="106" t="s">
         <v>463</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="93" t="s">
+      <c r="D52" s="44"/>
+      <c r="E52" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="F51" s="93"/>
-      <c r="G51" s="45" t="s">
-        <v>506</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="111" customFormat="1" ht="63">
-      <c r="A52" s="53"/>
-      <c r="B52" s="120" t="s">
+      <c r="F52" s="118"/>
+      <c r="G52" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="107" customFormat="1" ht="63">
+      <c r="A53" s="20"/>
+      <c r="B53" s="112" t="s">
         <v>464</v>
       </c>
-      <c r="C52" s="110" t="s">
+      <c r="C53" s="111" t="s">
         <v>465</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="93" t="s">
+      <c r="D53" s="104"/>
+      <c r="E53" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="45" t="s">
-        <v>507</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="111" customFormat="1" ht="63">
-      <c r="A53" s="20"/>
-      <c r="B53" s="119" t="s">
-        <v>466</v>
-      </c>
-      <c r="C53" s="118" t="s">
-        <v>467</v>
-      </c>
-      <c r="D53" s="108"/>
-      <c r="E53" s="93" t="s">
-        <v>285</v>
-      </c>
-      <c r="F53" s="93"/>
+      <c r="F53" s="118"/>
       <c r="G53" s="13" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="111" customFormat="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="107" customFormat="1">
       <c r="A54" s="20"/>
       <c r="D54" s="44"/>
     </row>
@@ -11003,241 +11524,241 @@
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-      <c r="H55" s="100"/>
+      <c r="H55" s="97"/>
     </row>
     <row r="56" spans="1:8" s="29" customFormat="1">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="H56" s="100"/>
+      <c r="H56" s="97"/>
     </row>
     <row r="57" spans="1:8" s="29" customFormat="1">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-      <c r="H57" s="100"/>
+      <c r="H57" s="97"/>
     </row>
     <row r="58" spans="1:8" s="29" customFormat="1">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
-      <c r="H58" s="100"/>
+      <c r="H58" s="97"/>
     </row>
     <row r="59" spans="1:8" s="29" customFormat="1">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-      <c r="H59" s="100"/>
+      <c r="H59" s="97"/>
     </row>
     <row r="60" spans="1:8" s="29" customFormat="1">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
-      <c r="H60" s="100"/>
+      <c r="H60" s="97"/>
     </row>
     <row r="61" spans="1:8" s="29" customFormat="1">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
-      <c r="H61" s="100"/>
+      <c r="H61" s="97"/>
     </row>
     <row r="62" spans="1:8" s="29" customFormat="1">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="20"/>
-      <c r="H62" s="100"/>
+      <c r="H62" s="97"/>
     </row>
     <row r="63" spans="1:8" s="29" customFormat="1">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="20"/>
-      <c r="H63" s="100"/>
+      <c r="H63" s="97"/>
     </row>
     <row r="64" spans="1:8" s="29" customFormat="1">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="20"/>
-      <c r="H64" s="100"/>
+      <c r="H64" s="97"/>
     </row>
     <row r="65" spans="1:8" s="29" customFormat="1">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="20"/>
-      <c r="H65" s="100"/>
+      <c r="H65" s="97"/>
     </row>
     <row r="66" spans="1:8" s="29" customFormat="1">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
-      <c r="H66" s="100"/>
+      <c r="H66" s="97"/>
     </row>
     <row r="67" spans="1:8" s="29" customFormat="1">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="H67" s="100"/>
+      <c r="H67" s="97"/>
     </row>
     <row r="68" spans="1:8" s="29" customFormat="1">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-      <c r="H68" s="100"/>
+      <c r="H68" s="97"/>
     </row>
     <row r="69" spans="1:8" s="29" customFormat="1">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
-      <c r="H69" s="100"/>
+      <c r="H69" s="97"/>
     </row>
     <row r="70" spans="1:8" s="29" customFormat="1">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
-      <c r="H70" s="100"/>
+      <c r="H70" s="97"/>
     </row>
     <row r="71" spans="1:8" s="29" customFormat="1">
       <c r="A71" s="30"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="H71" s="100"/>
+      <c r="H71" s="97"/>
     </row>
     <row r="72" spans="1:8" s="29" customFormat="1">
       <c r="A72" s="30"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-      <c r="H72" s="100"/>
+      <c r="H72" s="97"/>
     </row>
     <row r="73" spans="1:8" s="29" customFormat="1">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-      <c r="H73" s="100"/>
+      <c r="H73" s="97"/>
     </row>
     <row r="74" spans="1:8" s="29" customFormat="1">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-      <c r="H74" s="100"/>
+      <c r="H74" s="97"/>
     </row>
     <row r="75" spans="1:8" s="29" customFormat="1">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-      <c r="H75" s="100"/>
+      <c r="H75" s="97"/>
     </row>
     <row r="76" spans="1:8" s="29" customFormat="1">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
-      <c r="H76" s="100"/>
+      <c r="H76" s="97"/>
     </row>
     <row r="77" spans="1:8" s="29" customFormat="1">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-      <c r="H77" s="100"/>
+      <c r="H77" s="97"/>
     </row>
     <row r="78" spans="1:8" s="29" customFormat="1">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-      <c r="H78" s="100"/>
+      <c r="H78" s="97"/>
     </row>
     <row r="79" spans="1:8" s="29" customFormat="1">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
-      <c r="H79" s="100"/>
+      <c r="H79" s="97"/>
     </row>
     <row r="80" spans="1:8" s="29" customFormat="1">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
-      <c r="H80" s="100"/>
+      <c r="H80" s="97"/>
     </row>
     <row r="81" spans="1:8" s="29" customFormat="1">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-      <c r="H81" s="100"/>
+      <c r="H81" s="97"/>
     </row>
     <row r="82" spans="1:8" s="29" customFormat="1">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
-      <c r="H82" s="100"/>
+      <c r="H82" s="97"/>
     </row>
     <row r="83" spans="1:8" s="29" customFormat="1">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-      <c r="H83" s="100"/>
+      <c r="H83" s="97"/>
     </row>
     <row r="84" spans="1:8" s="29" customFormat="1">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-      <c r="H84" s="100"/>
+      <c r="H84" s="97"/>
     </row>
     <row r="85" spans="1:8" s="29" customFormat="1">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
-      <c r="H85" s="100"/>
+      <c r="H85" s="97"/>
     </row>
     <row r="86" spans="1:8" s="29" customFormat="1">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
-      <c r="H86" s="100"/>
+      <c r="H86" s="97"/>
     </row>
     <row r="87" spans="1:8" s="29" customFormat="1">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
-      <c r="H87" s="100"/>
+      <c r="H87" s="97"/>
     </row>
     <row r="88" spans="1:8" s="29" customFormat="1">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
-      <c r="H88" s="100"/>
+      <c r="H88" s="97"/>
     </row>
     <row r="89" spans="1:8" s="29" customFormat="1">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
-      <c r="H89" s="100"/>
+      <c r="H89" s="97"/>
     </row>
     <row r="90" spans="1:8" s="29" customFormat="1">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
-      <c r="H90" s="100"/>
+      <c r="H90" s="97"/>
     </row>
     <row r="91" spans="1:8" s="29" customFormat="1">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
-      <c r="H91" s="100"/>
+      <c r="H91" s="97"/>
     </row>
     <row r="92" spans="1:8" s="29" customFormat="1">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-      <c r="H92" s="100"/>
+      <c r="H92" s="97"/>
     </row>
     <row r="93" spans="1:8" s="29" customFormat="1">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="H93" s="100"/>
+      <c r="H93" s="97"/>
     </row>
     <row r="94" spans="1:8" s="29" customFormat="1">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
-      <c r="H94" s="100"/>
+      <c r="H94" s="97"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="20"/>
@@ -11264,943 +11785,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.25" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="45.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="G2" s="42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
-      <c r="A6" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="44" customFormat="1">
-      <c r="A7" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" s="69" customFormat="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
-      <c r="A9" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="1:11" s="69" customFormat="1">
-      <c r="A10" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="E10" s="60">
-        <v>1</v>
-      </c>
-      <c r="F10" s="60">
-        <v>1</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" s="69" customFormat="1">
-      <c r="A11" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="E11" s="60">
-        <v>2</v>
-      </c>
-      <c r="F11" s="60">
-        <v>2</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-    </row>
-    <row r="12" spans="1:11" s="69" customFormat="1">
-      <c r="A12" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="E12" s="60">
-        <v>3</v>
-      </c>
-      <c r="F12" s="60">
-        <v>3</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-    </row>
-    <row r="13" spans="1:11" s="69" customFormat="1">
-      <c r="A13" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="E13" s="60">
-        <v>4</v>
-      </c>
-      <c r="F13" s="60">
-        <v>4</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="1:11" s="69" customFormat="1">
-      <c r="A14" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="E14" s="60">
-        <v>5</v>
-      </c>
-      <c r="F14" s="60">
-        <v>5</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-    </row>
-    <row r="15" spans="1:11" s="69" customFormat="1">
-      <c r="A15" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="E15" s="60">
-        <v>6</v>
-      </c>
-      <c r="F15" s="60">
-        <v>6</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" s="69" customFormat="1">
-      <c r="A16" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="E16" s="60">
-        <v>7</v>
-      </c>
-      <c r="F16" s="60">
-        <v>7</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="1:11" s="69" customFormat="1">
-      <c r="A17" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="E17" s="60">
-        <v>8</v>
-      </c>
-      <c r="F17" s="60">
-        <v>8</v>
-      </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" spans="1:11" s="69" customFormat="1">
-      <c r="A18" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="E18" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="60">
-        <v>9</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="1:11" s="69" customFormat="1">
-      <c r="A19" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="E19" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="60">
-        <v>10</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A20" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="E21" s="60">
-        <v>1</v>
-      </c>
-      <c r="F21" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="E22" s="60">
-        <v>2</v>
-      </c>
-      <c r="F22" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="60">
-        <v>3</v>
-      </c>
-      <c r="F23" s="60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="60">
-        <v>4</v>
-      </c>
-      <c r="F24" s="60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="29" customFormat="1">
-      <c r="A25" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="20"/>
-      <c r="E25" s="60">
-        <v>5</v>
-      </c>
-      <c r="F25" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="29" customFormat="1">
-      <c r="A26" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="60">
-        <v>6</v>
-      </c>
-      <c r="F26" s="60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="29" customFormat="1">
-      <c r="A27" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="60">
-        <v>7</v>
-      </c>
-      <c r="F27" s="60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="29" customFormat="1">
-      <c r="A28" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="E28" s="60">
-        <v>8</v>
-      </c>
-      <c r="F28" s="60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="29" customFormat="1">
-      <c r="A29" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="E29" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" s="60">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="29" customFormat="1">
-      <c r="A30" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="E30" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-    </row>
-    <row r="32" spans="1:11" s="44" customFormat="1">
-      <c r="A32" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="60"/>
-      <c r="E32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="44" customFormat="1">
-      <c r="A33" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="60"/>
-      <c r="E33" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="44" customFormat="1">
-      <c r="A34" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="60"/>
-      <c r="E34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="7">
-        <v>3</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="44" customFormat="1">
-      <c r="A35" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="44" customFormat="1">
-      <c r="A36" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="60"/>
-      <c r="E36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="44" customFormat="1">
-      <c r="A37" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="60"/>
-      <c r="E37" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="44" customFormat="1">
-      <c r="A38" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="60"/>
-      <c r="E38" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="44" customFormat="1">
-      <c r="A39" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="60"/>
-      <c r="E39" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="44" customFormat="1">
-      <c r="A40" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="60"/>
-      <c r="E40" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="44" customFormat="1">
-      <c r="A41" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-    </row>
-    <row r="43" spans="1:9" s="44" customFormat="1">
-      <c r="A43" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="28"/>
-      <c r="E43" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="44" customFormat="1">
-      <c r="A44" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="28"/>
-      <c r="E44" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="44" customFormat="1">
-      <c r="A45" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="28"/>
-      <c r="E45" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="44" customFormat="1">
-      <c r="A46" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="28"/>
-      <c r="E46" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="44" customFormat="1">
-      <c r="A47" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="28"/>
-      <c r="E47" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="29" customFormat="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3" s="29" customFormat="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-    </row>
-    <row r="50" spans="1:3" s="29" customFormat="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3" s="29" customFormat="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" s="29" customFormat="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="1:3" s="29" customFormat="1">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" s="29" customFormat="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3" s="29" customFormat="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" s="29" customFormat="1">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:3" s="29" customFormat="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3" s="29" customFormat="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-    </row>
-    <row r="59" spans="1:3" s="29" customFormat="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3" s="29" customFormat="1">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="1:3" s="29" customFormat="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:3" s="29" customFormat="1">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="1:3" s="29" customFormat="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:3" s="29" customFormat="1">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" spans="1:3" s="29" customFormat="1">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="1:3" s="29" customFormat="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="1:3" s="29" customFormat="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-    </row>
-    <row r="68" spans="1:3" s="29" customFormat="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="1:3" s="29" customFormat="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" s="29" customFormat="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" spans="1:3" s="29" customFormat="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" s="29" customFormat="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" spans="1:3" s="29" customFormat="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-    </row>
-    <row r="74" spans="1:3" s="29" customFormat="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" spans="1:3" s="29" customFormat="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="1:3" s="29" customFormat="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-    </row>
-    <row r="77" spans="1:3" s="29" customFormat="1">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="1:3" s="29" customFormat="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-    </row>
-    <row r="79" spans="1:3" s="29" customFormat="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="1:3" s="29" customFormat="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" spans="1:3" s="29" customFormat="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-    </row>
-    <row r="82" spans="1:3" s="29" customFormat="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-    </row>
-    <row r="83" spans="1:3" s="29" customFormat="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="1:3" s="29" customFormat="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="1:3" s="29" customFormat="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-    </row>
-    <row r="86" spans="1:3" s="29" customFormat="1">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-    </row>
-    <row r="87" spans="1:3" s="29" customFormat="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-    </row>
-    <row r="88" spans="1:3" s="29" customFormat="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-    </row>
-    <row r="89" spans="1:3" s="29" customFormat="1">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-    </row>
-    <row r="90" spans="1:3" s="29" customFormat="1">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-    </row>
-    <row r="91" spans="1:3" s="29" customFormat="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12217,7 +11805,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -12231,13 +11819,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="26">
-        <v>43245</v>
-      </c>
-      <c r="C2" s="91" t="s">
+        <v>43262</v>
+      </c>
+      <c r="C2" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="42" t="s">
         <v>205</v>
       </c>
@@ -12247,9 +11835,9 @@
         <v>46</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
@@ -12258,16 +11846,16 @@
       <c r="B4" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
       <c r="A6" s="40" t="s">
@@ -12300,7 +11888,7 @@
         <v>207</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="54" t="s">
         <v>199</v>
@@ -12311,7 +11899,7 @@
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
       <c r="G7" s="37" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="59"/>
@@ -12332,7 +11920,7 @@
         <v>208</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>199</v>
@@ -12347,19 +11935,19 @@
         <v>339</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>336</v>
+        <v>526</v>
       </c>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:11" s="69" customFormat="1">
+    <row r="10" spans="1:11" s="69" customFormat="1" ht="31.5">
       <c r="A10" s="68" t="s">
         <v>209</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="E10" s="60">
         <v>1</v>
@@ -12378,10 +11966,10 @@
         <v>209</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>482</v>
+        <v>155</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="E11" s="60">
         <v>2</v>
@@ -12395,11 +11983,16 @@
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
     </row>
-    <row r="12" spans="1:11" s="69" customFormat="1">
+    <row r="12" spans="1:11" s="69" customFormat="1" ht="31.5">
       <c r="A12" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>418</v>
+      </c>
       <c r="E12" s="60">
         <v>3</v>
       </c>
@@ -12412,6 +12005,1207 @@
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
     </row>
+    <row r="13" spans="1:11" s="69" customFormat="1" ht="47.25">
+      <c r="A13" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>570</v>
+      </c>
+      <c r="C13" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="E13" s="60">
+        <v>4</v>
+      </c>
+      <c r="F13" s="60">
+        <v>4</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>495</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:11" s="69" customFormat="1">
+      <c r="A14" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="60">
+        <v>5</v>
+      </c>
+      <c r="F14" s="60">
+        <v>5</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" s="69" customFormat="1">
+      <c r="A15" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="E15" s="60">
+        <v>6</v>
+      </c>
+      <c r="F15" s="60">
+        <v>6</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" s="69" customFormat="1">
+      <c r="A16" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="E16" s="60">
+        <v>7</v>
+      </c>
+      <c r="F16" s="60">
+        <v>7</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" s="69" customFormat="1">
+      <c r="A17" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="E17" s="60">
+        <v>8</v>
+      </c>
+      <c r="F17" s="60">
+        <v>8</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" s="69" customFormat="1">
+      <c r="A18" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="E18" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="60">
+        <v>9</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" s="69" customFormat="1">
+      <c r="A19" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="E19" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="60">
+        <v>10</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="1:11" s="69" customFormat="1" ht="47.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="1:11" s="69" customFormat="1" ht="31.5">
+      <c r="A21" s="68"/>
+      <c r="B21" s="113" t="s">
+        <v>533</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="E21" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="115"/>
+      <c r="G21" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="H21" s="127" t="s">
+        <v>495</v>
+      </c>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+    </row>
+    <row r="22" spans="1:11" s="44" customFormat="1" ht="47.25">
+      <c r="A22" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="H22" s="128" t="s">
+        <v>553</v>
+      </c>
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="1:11" ht="31.5">
+      <c r="A23" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="E23" s="60">
+        <v>1</v>
+      </c>
+      <c r="F23" s="60">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>560</v>
+      </c>
+      <c r="H23" s="127" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="31.5">
+      <c r="A24" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="131" t="s">
+        <v>539</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>536</v>
+      </c>
+      <c r="E24" s="60">
+        <v>2</v>
+      </c>
+      <c r="F24" s="60">
+        <v>2</v>
+      </c>
+      <c r="G24" s="96" t="s">
+        <v>562</v>
+      </c>
+      <c r="H24" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="31.5">
+      <c r="A25" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="129" t="s">
+        <v>563</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>536</v>
+      </c>
+      <c r="E25" s="60">
+        <v>3</v>
+      </c>
+      <c r="F25" s="60">
+        <v>3</v>
+      </c>
+      <c r="H25" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="60">
+        <v>4</v>
+      </c>
+      <c r="F26" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="29" customFormat="1">
+      <c r="A27" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="20"/>
+      <c r="E27" s="60">
+        <v>5</v>
+      </c>
+      <c r="F27" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="29" customFormat="1">
+      <c r="A28" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="60">
+        <v>6</v>
+      </c>
+      <c r="F28" s="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="29" customFormat="1">
+      <c r="A29" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="60">
+        <v>7</v>
+      </c>
+      <c r="F29" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="29" customFormat="1">
+      <c r="A30" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="E30" s="60">
+        <v>8</v>
+      </c>
+      <c r="F30" s="60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="29" customFormat="1">
+      <c r="A31" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="E31" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="29" customFormat="1">
+      <c r="A32" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="E32" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="31.5">
+      <c r="A33" s="68"/>
+      <c r="B33" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="115"/>
+      <c r="G33" s="121" t="s">
+        <v>561</v>
+      </c>
+      <c r="H33" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="44" customFormat="1" ht="63">
+      <c r="A34" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A35" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>540</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="44" customFormat="1" ht="47.25">
+      <c r="A36" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="H36" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A37" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="99" t="s">
+        <v>546</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A38" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>571</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>549</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="44" customFormat="1">
+      <c r="A39" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="H39" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="44" customFormat="1">
+      <c r="A40" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="44" customFormat="1">
+      <c r="A41" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="7">
+        <v>7</v>
+      </c>
+      <c r="H41" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="44" customFormat="1">
+      <c r="A42" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="60"/>
+      <c r="E42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="44" customFormat="1">
+      <c r="A43" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="60"/>
+      <c r="E43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="44" customFormat="1">
+      <c r="A44" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A45" s="68"/>
+      <c r="B45" s="113" t="s">
+        <v>541</v>
+      </c>
+      <c r="C45" s="98" t="s">
+        <v>542</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="H45" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A46" s="68"/>
+      <c r="B46" s="113" t="s">
+        <v>543</v>
+      </c>
+      <c r="C46" s="98" t="s">
+        <v>544</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="H46" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="44" customFormat="1" ht="78.75">
+      <c r="A47" s="68"/>
+      <c r="B47" s="113" t="s">
+        <v>446</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>545</v>
+      </c>
+      <c r="E47" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" s="130"/>
+      <c r="G47" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="44" customFormat="1" ht="47.25">
+      <c r="A48" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="59"/>
+    </row>
+    <row r="49" spans="1:8" s="44" customFormat="1">
+      <c r="A49" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="44" customFormat="1">
+      <c r="A50" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="44" customFormat="1">
+      <c r="A51" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="44" customFormat="1">
+      <c r="A52" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="44" customFormat="1">
+      <c r="A53" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="29" customFormat="1" ht="47.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="F54" s="130"/>
+      <c r="G54" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" s="127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="29" customFormat="1" ht="63">
+      <c r="A55" s="30"/>
+      <c r="B55" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="C55" s="99" t="s">
+        <v>465</v>
+      </c>
+      <c r="E55" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="F55" s="130"/>
+      <c r="G55" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="29" customFormat="1">
+      <c r="A56" s="20"/>
+      <c r="B56" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="29" customFormat="1">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" s="29" customFormat="1">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" s="29" customFormat="1">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="1:8" s="29" customFormat="1">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="1:8" s="29" customFormat="1">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="1:8" s="29" customFormat="1">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" s="29" customFormat="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" s="29" customFormat="1">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+    </row>
+    <row r="65" spans="1:3" s="29" customFormat="1">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="1:3" s="29" customFormat="1">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" spans="1:3" s="29" customFormat="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="1:3" s="29" customFormat="1">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" s="29" customFormat="1">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="1:3" s="29" customFormat="1">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71" spans="1:3" s="29" customFormat="1">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+    </row>
+    <row r="72" spans="1:3" s="29" customFormat="1">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" s="29" customFormat="1">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+    </row>
+    <row r="74" spans="1:3" s="29" customFormat="1">
+      <c r="A74" s="30"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+    </row>
+    <row r="75" spans="1:3" s="29" customFormat="1">
+      <c r="A75" s="30"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+    </row>
+    <row r="76" spans="1:3" s="29" customFormat="1">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+    </row>
+    <row r="77" spans="1:3" s="29" customFormat="1">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+    </row>
+    <row r="78" spans="1:3" s="29" customFormat="1">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+    </row>
+    <row r="79" spans="1:3" s="29" customFormat="1">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+    </row>
+    <row r="80" spans="1:3" s="29" customFormat="1">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+    </row>
+    <row r="81" spans="1:3" s="29" customFormat="1">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+    </row>
+    <row r="82" spans="1:3" s="29" customFormat="1">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+    </row>
+    <row r="83" spans="1:3" s="29" customFormat="1">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+    </row>
+    <row r="84" spans="1:3" s="29" customFormat="1">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+    </row>
+    <row r="85" spans="1:3" s="29" customFormat="1">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+    </row>
+    <row r="86" spans="1:3" s="29" customFormat="1">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+    </row>
+    <row r="87" spans="1:3" s="29" customFormat="1">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+    </row>
+    <row r="88" spans="1:3" s="29" customFormat="1">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+    </row>
+    <row r="89" spans="1:3" s="29" customFormat="1">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+    </row>
+    <row r="90" spans="1:3" s="29" customFormat="1">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+    </row>
+    <row r="91" spans="1:3" s="29" customFormat="1">
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+    </row>
+    <row r="92" spans="1:3" s="29" customFormat="1">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+    </row>
+    <row r="93" spans="1:3" s="29" customFormat="1">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="1:3" s="29" customFormat="1">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+    </row>
+    <row r="95" spans="1:3" s="29" customFormat="1">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+    </row>
+    <row r="96" spans="1:3" s="29" customFormat="1">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+    </row>
+    <row r="97" spans="1:3" s="29" customFormat="1">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C2:E5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E54:F54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="121" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="121" customWidth="1"/>
+    <col min="6" max="6" width="9" style="121" customWidth="1"/>
+    <col min="7" max="7" width="45.875" style="121" customWidth="1"/>
+    <col min="8" max="8" width="35.625" style="121" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="26">
+        <v>43262</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="G2" s="42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="47.25">
+      <c r="A6" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="44" customFormat="1" ht="47.25">
+      <c r="A7" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" s="69" customFormat="1">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" s="44" customFormat="1" ht="47.25">
+      <c r="A9" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" s="69" customFormat="1">
+      <c r="A10" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="60">
+        <v>1</v>
+      </c>
+      <c r="F10" s="60">
+        <v>1</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" s="69" customFormat="1" ht="31.5">
+      <c r="A11" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="E11" s="60">
+        <v>2</v>
+      </c>
+      <c r="F11" s="60">
+        <v>2</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" s="69" customFormat="1" ht="31.5">
+      <c r="A12" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="60">
+        <v>3</v>
+      </c>
+      <c r="F12" s="60">
+        <v>3</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+    </row>
     <row r="13" spans="1:11" s="69" customFormat="1">
       <c r="A13" s="68" t="s">
         <v>209</v>
@@ -12536,7 +13330,7 @@
         <v>208</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>199</v>
@@ -12556,15 +13350,15 @@
       <c r="H20" s="37"/>
       <c r="I20" s="59"/>
     </row>
-    <row r="21" spans="1:11" ht="31.5">
+    <row r="21" spans="1:11" ht="47.25">
       <c r="A21" s="68" t="s">
         <v>209</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>486</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>487</v>
+        <v>515</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>512</v>
       </c>
       <c r="E21" s="60">
         <v>1</v>
@@ -12572,8 +13366,8 @@
       <c r="F21" s="60">
         <v>1</v>
       </c>
-      <c r="H21" s="112" t="s">
-        <v>476</v>
+      <c r="G21" s="121" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12581,10 +13375,10 @@
         <v>209</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>488</v>
-      </c>
-      <c r="C22" s="103" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>487</v>
       </c>
       <c r="E22" s="60">
         <v>2</v>
@@ -12592,16 +13386,19 @@
       <c r="F22" s="60">
         <v>2</v>
       </c>
+      <c r="H22" s="110" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="68" t="s">
         <v>209</v>
       </c>
       <c r="B23" s="79" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="99" t="s">
         <v>490</v>
-      </c>
-      <c r="C23" s="103" t="s">
-        <v>491</v>
       </c>
       <c r="E23" s="60">
         <v>3</v>
@@ -12609,19 +13406,19 @@
       <c r="F23" s="60">
         <v>3</v>
       </c>
-      <c r="H23" s="112" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="H23" s="123" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="63">
       <c r="A24" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="114" t="s">
-        <v>492</v>
-      </c>
-      <c r="C24" s="114" t="s">
-        <v>446</v>
+      <c r="B24" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="C24" s="122" t="s">
+        <v>514</v>
       </c>
       <c r="E24" s="60">
         <v>4</v>
@@ -12629,16 +13426,13 @@
       <c r="F24" s="60">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="29" customFormat="1">
+      <c r="G24" s="121" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="107" customFormat="1">
       <c r="A25" s="68" t="s">
         <v>209</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>493</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>494</v>
       </c>
       <c r="E25" s="60">
         <v>5</v>
@@ -12646,19 +13440,10 @@
       <c r="F25" s="60">
         <v>5</v>
       </c>
-      <c r="H25" s="113" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="29" customFormat="1" ht="78.75">
+    </row>
+    <row r="26" spans="1:11" s="107" customFormat="1">
       <c r="A26" s="68" t="s">
         <v>209</v>
-      </c>
-      <c r="B26" s="79" t="s">
-        <v>448</v>
-      </c>
-      <c r="C26" s="97" t="s">
-        <v>145</v>
       </c>
       <c r="E26" s="60">
         <v>6</v>
@@ -12666,14 +13451,12 @@
       <c r="F26" s="60">
         <v>6</v>
       </c>
-      <c r="H26" s="100" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="29" customFormat="1">
+    </row>
+    <row r="27" spans="1:11" s="107" customFormat="1">
       <c r="A27" s="68" t="s">
         <v>209</v>
       </c>
+      <c r="B27" s="60"/>
       <c r="E27" s="60">
         <v>7</v>
       </c>
@@ -12681,12 +13464,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="29" customFormat="1">
+    <row r="28" spans="1:11" s="107" customFormat="1">
       <c r="A28" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
       <c r="E28" s="60">
         <v>8</v>
       </c>
@@ -12694,12 +13477,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="29" customFormat="1">
+    <row r="29" spans="1:11" s="107" customFormat="1">
       <c r="A29" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="E29" s="44" t="s">
         <v>199</v>
       </c>
@@ -12707,12 +13490,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="29" customFormat="1">
+    <row r="30" spans="1:11" s="107" customFormat="1">
       <c r="A30" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="E30" s="44" t="s">
         <v>199</v>
       </c>
@@ -12720,129 +13503,137 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="44" customFormat="1" ht="63">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:11" s="107" customFormat="1" ht="47.25">
+      <c r="A31" s="68"/>
+      <c r="B31" s="113" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F31" s="115"/>
+      <c r="G31" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="H31" s="110" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="107" customFormat="1" ht="78.75">
+      <c r="A32" s="68"/>
+      <c r="B32" s="113" t="s">
+        <v>446</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F32" s="115"/>
+      <c r="G32" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H32" s="124" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="44" customFormat="1" ht="63">
+      <c r="A33" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="54" t="s">
+      <c r="B33" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F33" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G33" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="59"/>
-    </row>
-    <row r="32" spans="1:11" s="44" customFormat="1" ht="31.5">
-      <c r="A32" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C32" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="44" customFormat="1">
-      <c r="A33" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2</v>
-      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" s="44" customFormat="1">
       <c r="A34" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="60"/>
+      <c r="B34" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>498</v>
+      </c>
       <c r="E34" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F34" s="7">
-        <v>3</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="44" customFormat="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="44" customFormat="1" ht="31.5">
       <c r="A35" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="60"/>
       <c r="E35" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F35" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="44" customFormat="1">
       <c r="A36" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="60"/>
       <c r="E36" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F36" s="7">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:9" s="44" customFormat="1">
       <c r="A37" s="68" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="60"/>
+      <c r="C37" s="7"/>
       <c r="E37" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F37" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="44" customFormat="1">
       <c r="A38" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="60"/>
       <c r="E38" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F38" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="44" customFormat="1">
@@ -12855,380 +13646,460 @@
         <v>199</v>
       </c>
       <c r="F39" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="44" customFormat="1">
       <c r="A40" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="60"/>
       <c r="E40" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F40" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="44" customFormat="1">
       <c r="A41" s="68" t="s">
         <v>209</v>
       </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="60"/>
       <c r="E41" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F41" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="44" customFormat="1">
+      <c r="A42" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="60"/>
+      <c r="E42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="44" customFormat="1">
+      <c r="A43" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="44" customFormat="1" ht="47.25">
-      <c r="A42" s="50" t="s">
+    <row r="44" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A44" s="68"/>
+      <c r="B44" s="113" t="s">
+        <v>496</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="E44" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F44" s="115"/>
+      <c r="G44" s="44" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="44" customFormat="1" ht="47.25">
+      <c r="A45" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B45" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="55" t="s">
+      <c r="C45" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F45" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G45" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-    </row>
-    <row r="43" spans="1:9" s="44" customFormat="1" ht="31.5">
-      <c r="A43" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B43" s="116" t="s">
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+    </row>
+    <row r="46" spans="1:9" s="44" customFormat="1" ht="47.25">
+      <c r="A46" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="109" t="s">
         <v>438</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C46" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="44" customFormat="1" ht="31.5">
+      <c r="A47" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="44" customFormat="1">
+      <c r="A48" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="44" customFormat="1">
+      <c r="A49" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="E49" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="44" customFormat="1">
+      <c r="A50" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="E50" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="107" customFormat="1">
+      <c r="A51" s="90"/>
+      <c r="B51" s="126" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="115"/>
+      <c r="G51" s="107" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="107" customFormat="1" ht="47.25">
+      <c r="A52" s="89"/>
+      <c r="B52" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="115"/>
+      <c r="G52" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="107" customFormat="1" ht="63">
+      <c r="A53" s="90"/>
+      <c r="B53" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="C53" s="99" t="s">
+        <v>465</v>
+      </c>
+      <c r="E53" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="115"/>
+      <c r="G53" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E43" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="44" customFormat="1">
-      <c r="A44" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="44" customFormat="1">
-      <c r="A45" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="44" customFormat="1">
-      <c r="A46" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="102" t="s">
-        <v>466</v>
-      </c>
-      <c r="C46" s="102" t="s">
-        <v>467</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="7">
-        <v>4</v>
-      </c>
-      <c r="H46" s="117" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="44" customFormat="1">
-      <c r="A47" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="28"/>
-      <c r="E47" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="29" customFormat="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:3" s="29" customFormat="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-    </row>
-    <row r="50" spans="1:3" s="29" customFormat="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" spans="1:3" s="29" customFormat="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-    </row>
-    <row r="52" spans="1:3" s="29" customFormat="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="1:3" s="29" customFormat="1">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" s="29" customFormat="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:3" s="29" customFormat="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" s="29" customFormat="1">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:3" s="29" customFormat="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3" s="29" customFormat="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-    </row>
-    <row r="59" spans="1:3" s="29" customFormat="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3" s="29" customFormat="1">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="1:3" s="29" customFormat="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:3" s="29" customFormat="1">
-      <c r="A62" s="20"/>
+      <c r="H53" s="110" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="107" customFormat="1">
+      <c r="A54" s="90"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+    </row>
+    <row r="55" spans="1:8" s="107" customFormat="1">
+      <c r="A55" s="90"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+    </row>
+    <row r="56" spans="1:8" s="107" customFormat="1">
+      <c r="A56" s="90"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
+    </row>
+    <row r="57" spans="1:8" s="107" customFormat="1">
+      <c r="A57" s="90"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+    </row>
+    <row r="58" spans="1:8" s="107" customFormat="1">
+      <c r="A58" s="90"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+    </row>
+    <row r="59" spans="1:8" s="107" customFormat="1">
+      <c r="A59" s="90"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+    </row>
+    <row r="60" spans="1:8" s="107" customFormat="1">
+      <c r="A60" s="90"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+    </row>
+    <row r="61" spans="1:8" s="107" customFormat="1">
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+    </row>
+    <row r="62" spans="1:8" s="107" customFormat="1">
+      <c r="A62" s="90"/>
       <c r="B62" s="21"/>
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="1:3" s="29" customFormat="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:3" s="29" customFormat="1">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-    </row>
-    <row r="65" spans="1:3" s="29" customFormat="1">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="1:3" s="29" customFormat="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="1:3" s="29" customFormat="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-    </row>
-    <row r="68" spans="1:3" s="29" customFormat="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="1:3" s="29" customFormat="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" s="29" customFormat="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" spans="1:3" s="29" customFormat="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" s="29" customFormat="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" spans="1:3" s="29" customFormat="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-    </row>
-    <row r="74" spans="1:3" s="29" customFormat="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" spans="1:3" s="29" customFormat="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="1:3" s="29" customFormat="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-    </row>
-    <row r="77" spans="1:3" s="29" customFormat="1">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="1:3" s="29" customFormat="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-    </row>
-    <row r="79" spans="1:3" s="29" customFormat="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="1:3" s="29" customFormat="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" spans="1:3" s="29" customFormat="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-    </row>
-    <row r="82" spans="1:3" s="29" customFormat="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-    </row>
-    <row r="83" spans="1:3" s="29" customFormat="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="1:3" s="29" customFormat="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="1:3" s="29" customFormat="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-    </row>
-    <row r="86" spans="1:3" s="29" customFormat="1">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-    </row>
-    <row r="87" spans="1:3" s="29" customFormat="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-    </row>
-    <row r="88" spans="1:3" s="29" customFormat="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-    </row>
-    <row r="89" spans="1:3" s="29" customFormat="1">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-    </row>
-    <row r="90" spans="1:3" s="29" customFormat="1">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-    </row>
-    <row r="91" spans="1:3" s="29" customFormat="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
+      <c r="C62" s="90"/>
+    </row>
+    <row r="63" spans="1:8" s="107" customFormat="1">
+      <c r="A63" s="90"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="90"/>
+    </row>
+    <row r="64" spans="1:8" s="107" customFormat="1">
+      <c r="A64" s="90"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="90"/>
+    </row>
+    <row r="65" spans="1:3" s="107" customFormat="1">
+      <c r="A65" s="90"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="90"/>
+    </row>
+    <row r="66" spans="1:3" s="107" customFormat="1">
+      <c r="A66" s="90"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+    </row>
+    <row r="67" spans="1:3" s="107" customFormat="1">
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+    </row>
+    <row r="68" spans="1:3" s="107" customFormat="1">
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+    </row>
+    <row r="69" spans="1:3" s="107" customFormat="1">
+      <c r="A69" s="90"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+    </row>
+    <row r="70" spans="1:3" s="107" customFormat="1">
+      <c r="A70" s="89"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
+    </row>
+    <row r="71" spans="1:3" s="107" customFormat="1">
+      <c r="A71" s="89"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
+    </row>
+    <row r="72" spans="1:3" s="107" customFormat="1">
+      <c r="A72" s="89"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
+    </row>
+    <row r="73" spans="1:3" s="107" customFormat="1">
+      <c r="A73" s="90"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
+    </row>
+    <row r="74" spans="1:3" s="107" customFormat="1">
+      <c r="A74" s="90"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+    </row>
+    <row r="75" spans="1:3" s="107" customFormat="1">
+      <c r="A75" s="90"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
+    </row>
+    <row r="76" spans="1:3" s="107" customFormat="1">
+      <c r="A76" s="90"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
+    </row>
+    <row r="77" spans="1:3" s="107" customFormat="1">
+      <c r="A77" s="90"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
+    </row>
+    <row r="78" spans="1:3" s="107" customFormat="1">
+      <c r="A78" s="90"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
+    </row>
+    <row r="79" spans="1:3" s="107" customFormat="1">
+      <c r="A79" s="89"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="89"/>
+    </row>
+    <row r="80" spans="1:3" s="107" customFormat="1">
+      <c r="A80" s="90"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+    </row>
+    <row r="81" spans="1:3" s="107" customFormat="1">
+      <c r="A81" s="90"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
+    </row>
+    <row r="82" spans="1:3" s="107" customFormat="1">
+      <c r="A82" s="90"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
+    </row>
+    <row r="83" spans="1:3" s="107" customFormat="1">
+      <c r="A83" s="90"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
+    </row>
+    <row r="84" spans="1:3" s="107" customFormat="1">
+      <c r="A84" s="90"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+    </row>
+    <row r="85" spans="1:3" s="107" customFormat="1">
+      <c r="A85" s="90"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+    </row>
+    <row r="86" spans="1:3" s="107" customFormat="1">
+      <c r="A86" s="90"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
+    </row>
+    <row r="87" spans="1:3" s="107" customFormat="1">
+      <c r="A87" s="90"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
+    </row>
+    <row r="88" spans="1:3" s="107" customFormat="1">
+      <c r="A88" s="89"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+    </row>
+    <row r="89" spans="1:3" s="107" customFormat="1">
+      <c r="A89" s="90"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="90"/>
+    </row>
+    <row r="90" spans="1:3" s="107" customFormat="1">
+      <c r="A90" s="90"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:3" s="107" customFormat="1">
+      <c r="A91" s="90"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
+    </row>
+    <row r="92" spans="1:3" s="107" customFormat="1">
+      <c r="A92" s="90"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="90"/>
+    </row>
+    <row r="93" spans="1:3" s="107" customFormat="1">
+      <c r="A93" s="90"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
+    </row>
+    <row r="94" spans="1:3" s="107" customFormat="1">
+      <c r="A94" s="90"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="90"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="C2:E5"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E51:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13236,8 +14107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13271,11 +14142,11 @@
       <c r="B2" s="32">
         <v>43257</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="114" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="G2" s="71" t="s">
         <v>338</v>
       </c>
@@ -13284,9 +14155,9 @@
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -13295,14 +14166,14 @@
       <c r="B4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="47.25">
       <c r="A6" s="40" t="s">
@@ -13540,10 +14411,10 @@
       <c r="C20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="93"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="9" t="s">
         <v>366</v>
       </c>
@@ -13932,10 +14803,10 @@
         <v>326</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="E44" s="93" t="s">
+      <c r="E44" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="F44" s="93"/>
+      <c r="F44" s="118"/>
       <c r="G44" s="9" t="s">
         <v>345</v>
       </c>
@@ -14062,10 +14933,10 @@
       <c r="C51" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="93" t="s">
+      <c r="E51" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="F51" s="93"/>
+      <c r="F51" s="118"/>
       <c r="G51" s="1" t="s">
         <v>297</v>
       </c>

--- a/design/content/VA.gov-Nav-Hub-Links.xlsx
+++ b/design/content/VA.gov-Nav-Hub-Links.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="884" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Top Nav" sheetId="5" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="728">
   <si>
     <t>Inside VA</t>
   </si>
@@ -3289,12 +3289,6 @@
   </si>
   <si>
     <t>GI Bill Education Benefits</t>
-  </si>
-  <si>
-    <t>vets.gov/employment/vocational-rehab-and-employment/external-resources/</t>
-  </si>
-  <si>
-    <t>va.gov/housing-assistance</t>
   </si>
   <si>
     <t xml:space="preserve">Access Your Docuements and Records </t>
@@ -3459,6 +3453,15 @@
   </si>
   <si>
     <t>https://linkedinforgood.linkedin.com/programs/veterans</t>
+  </si>
+  <si>
+    <t>Moved to More spoke</t>
+  </si>
+  <si>
+    <t>https://www.vets.gov/education/other-educational-assistance-programs/</t>
+  </si>
+  <si>
+    <t>VA Backed Home Loans</t>
   </si>
 </sst>
 </file>
@@ -9716,8 +9719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10027,7 +10030,7 @@
         <v>208</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>626</v>
@@ -10039,7 +10042,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
@@ -10161,7 +10164,7 @@
         <v>208</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>626</v>
@@ -10178,7 +10181,7 @@
         <v>208</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E25" s="59">
         <v>5</v>
@@ -10207,7 +10210,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="125" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="28" customFormat="1">
@@ -10899,8 +10902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11265,7 +11268,7 @@
       <c r="E20" s="43"/>
       <c r="F20" s="59"/>
       <c r="G20" s="58" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -11331,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="103" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -11443,7 +11446,7 @@
       <c r="E32" s="43"/>
       <c r="F32" s="59"/>
       <c r="G32" s="28" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="28" customFormat="1">
@@ -11457,7 +11460,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="59"/>
       <c r="G33" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H33" s="108" t="s">
         <v>472</v>
@@ -11557,7 +11560,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="31.5">
@@ -11565,10 +11568,10 @@
         <v>208</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C39" s="140" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>198</v>
@@ -11646,7 +11649,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="43" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="31.5">
@@ -11660,7 +11663,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="44" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="78.75">
@@ -11705,15 +11708,15 @@
       <c r="H48" s="36"/>
       <c r="I48" s="58"/>
     </row>
-    <row r="49" spans="1:8" s="43" customFormat="1">
+    <row r="49" spans="1:8" s="43" customFormat="1" ht="31.5">
       <c r="A49" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>624</v>
+      <c r="B49" s="99" t="s">
+        <v>651</v>
+      </c>
+      <c r="C49" s="99" t="s">
+        <v>652</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>198</v>
@@ -11721,16 +11724,19 @@
       <c r="F49" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="43" customFormat="1" ht="31.5">
+      <c r="G49" s="44" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="43" customFormat="1">
       <c r="A50" s="67" t="s">
         <v>208</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>709</v>
+        <v>624</v>
       </c>
       <c r="E50" s="43" t="s">
         <v>198</v>
@@ -11743,11 +11749,11 @@
       <c r="A51" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="45" t="s">
-        <v>183</v>
+      <c r="B51" s="7" t="s">
+        <v>628</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="E51" s="43" t="s">
         <v>198</v>
@@ -11755,19 +11761,16 @@
       <c r="F51" s="7">
         <v>3</v>
       </c>
-      <c r="H51" s="44" t="s">
-        <v>712</v>
-      </c>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="31.5">
       <c r="A52" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B52" s="99" t="s">
-        <v>700</v>
-      </c>
-      <c r="C52" s="99" t="s">
-        <v>701</v>
+      <c r="B52" s="45" t="s">
+        <v>727</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>671</v>
       </c>
       <c r="E52" s="43" t="s">
         <v>198</v>
@@ -11775,19 +11778,19 @@
       <c r="F52" s="7">
         <v>4</v>
       </c>
-      <c r="H52" s="111" t="s">
-        <v>472</v>
+      <c r="H52" s="44" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1">
       <c r="A53" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="99" t="s">
-        <v>651</v>
-      </c>
-      <c r="C53" s="99" t="s">
-        <v>652</v>
+      <c r="B53" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>573</v>
       </c>
       <c r="E53" s="43" t="s">
         <v>198</v>
@@ -11796,31 +11799,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="28" customFormat="1">
+    <row r="54" spans="1:8" s="28" customFormat="1" ht="47.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="99" t="s">
+      <c r="B54" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="99" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" s="28" customFormat="1" ht="31.5">
+      <c r="G54" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="28" customFormat="1" ht="63">
       <c r="A55" s="29"/>
-      <c r="B55" s="99" t="s">
-        <v>711</v>
+      <c r="B55" s="114" t="s">
+        <v>709</v>
       </c>
       <c r="C55" s="99" t="s">
         <v>463</v>
       </c>
+      <c r="G55" s="13" t="s">
+        <v>502</v>
+      </c>
       <c r="H55" s="96" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="28" customFormat="1">
+    <row r="56" spans="1:8" s="28" customFormat="1" ht="31.5">
       <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="114" t="s">
+        <v>700</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>701</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="H56" s="111" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="57" spans="1:8" s="28" customFormat="1">
       <c r="A57" s="20"/>
